--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_22_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_22_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2621315.502204307</v>
+        <v>-2621999.745544268</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6033391.197417974</v>
+        <v>6033391.197417979</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>14.50039258603383</v>
       </c>
       <c r="C11" t="n">
         <v>148.3792973187132</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>130.6924850783226</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>148.3792973187132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>108.4919291199561</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.37943843060901</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>118.7000222604375</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>95.86480218241283</v>
       </c>
       <c r="I12" t="n">
-        <v>56.74098649571546</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.4266772089115</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>148.3792973187132</v>
       </c>
       <c r="U12" t="n">
-        <v>51.84385830998477</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="V12" t="n">
-        <v>11.20220722356873</v>
+        <v>34.82768289590967</v>
       </c>
       <c r="W12" t="n">
-        <v>23.99325097644243</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1528,73 +1528,73 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1527859404846094</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>148.3792973187132</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>133.7344047140689</v>
-      </c>
       <c r="T13" t="n">
-        <v>14.79767854512922</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="U13" t="n">
         <v>148.3792973187132</v>
       </c>
       <c r="V13" t="n">
-        <v>43.21849229458098</v>
+        <v>43.21849229458104</v>
       </c>
       <c r="W13" t="n">
-        <v>68.38537836519424</v>
+        <v>68.3853783651943</v>
       </c>
       <c r="X13" t="n">
-        <v>14.03048036099736</v>
+        <v>14.03048036099742</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.905348117065046</v>
+        <v>4.905348117065103</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>133.2004148464706</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>148.3792973187132</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>148.3792973187132</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>108.4919291199561</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.602084647045833</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.37943843060889</v>
+        <v>37.37943843060901</v>
       </c>
       <c r="V14" t="n">
-        <v>88.71096200066779</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.74098649571546</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.4266772089115</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.3600385256214</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="U15" t="n">
-        <v>148.3792973187132</v>
+        <v>2.348621966776077</v>
       </c>
       <c r="V15" t="n">
-        <v>11.20220722356868</v>
+        <v>11.20220722356879</v>
       </c>
       <c r="W15" t="n">
-        <v>80.0636006458423</v>
+        <v>23.99325097644248</v>
       </c>
       <c r="X15" t="n">
         <v>148.3792973187132</v>
       </c>
       <c r="Y15" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>15.80988382663727</v>
       </c>
       <c r="R16" t="n">
-        <v>136.0296090620145</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>63.50550274704315</v>
+        <v>77.3316466855081</v>
       </c>
       <c r="T16" t="n">
-        <v>14.79767854512916</v>
+        <v>14.79767854512928</v>
       </c>
       <c r="U16" t="n">
-        <v>69.3943244897453</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="V16" t="n">
-        <v>148.3792973187132</v>
+        <v>43.21849229458104</v>
       </c>
       <c r="W16" t="n">
-        <v>68.38537836519419</v>
+        <v>68.3853783651943</v>
       </c>
       <c r="X16" t="n">
-        <v>14.0304803609973</v>
+        <v>14.03048036099742</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.905348117064989</v>
+        <v>4.905348117065103</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>10.20809314048137</v>
       </c>
       <c r="W17" t="n">
-        <v>35.50819261843827</v>
+        <v>35.50819261843881</v>
       </c>
       <c r="X17" t="n">
         <v>54.80845085118489</v>
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
         <v>148.3792973187132</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>141.6215317573457</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.3600385256214</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>105.214113341526</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>15.80988382663727</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>136.0296090620145</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>127.232289508384</v>
       </c>
       <c r="U19" t="n">
-        <v>114.8826012516853</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66.70171590030219</v>
+        <v>66.70171590030225</v>
       </c>
       <c r="C20" t="n">
-        <v>54.71303285798393</v>
+        <v>54.71303285798399</v>
       </c>
       <c r="D20" t="n">
-        <v>45.69433690251191</v>
+        <v>45.69433690251196</v>
       </c>
       <c r="E20" t="n">
-        <v>67.43647447241744</v>
+        <v>67.4364744724175</v>
       </c>
       <c r="F20" t="n">
-        <v>86.60829056039461</v>
+        <v>86.60829056039466</v>
       </c>
       <c r="G20" t="n">
-        <v>87.94674108336312</v>
+        <v>87.94674108336318</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>10.20809314048131</v>
+        <v>10.20809314048137</v>
       </c>
       <c r="W20" t="n">
-        <v>35.50819261843822</v>
+        <v>35.50819261843827</v>
       </c>
       <c r="X20" t="n">
-        <v>54.80845085118483</v>
+        <v>54.80845085118489</v>
       </c>
       <c r="Y20" t="n">
-        <v>66.20504864738359</v>
+        <v>66.20504864738365</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>102.7345499857348</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.122959624192</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.74098649571546</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>3.569525454130496</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>90.09961087639931</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,50 +2254,50 @@
         <v>148.3792973187132</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>40.59287420192322</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>148.3792973187132</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>15.80988382663727</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>114.8826012516853</v>
-      </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2403,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.122959624192</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.86480218241283</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>34.51134810562252</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>130.6924850783225</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,28 +2518,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.80988382663727</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.0296090620145</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="T25" t="n">
-        <v>130.6924850783225</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="U25" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>127.2322895083834</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>280.3344659504825</v>
+        <v>280.3344659504826</v>
       </c>
       <c r="C26" t="n">
         <v>268.3457829081643</v>
       </c>
       <c r="D26" t="n">
-        <v>259.3270869526922</v>
+        <v>259.3270869526923</v>
       </c>
       <c r="E26" t="n">
         <v>281.0692245225978</v>
       </c>
       <c r="F26" t="n">
-        <v>300.2410406105749</v>
+        <v>300.241040610575</v>
       </c>
       <c r="G26" t="n">
         <v>301.5794911335435</v>
@@ -2573,7 +2573,7 @@
         <v>213.6327500501803</v>
       </c>
       <c r="I26" t="n">
-        <v>38.3886918022974</v>
+        <v>38.38869180229749</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.03364652322247</v>
+        <v>62.03364652322254</v>
       </c>
       <c r="T26" t="n">
-        <v>109.7429055772701</v>
+        <v>109.7429055772702</v>
       </c>
       <c r="U26" t="n">
         <v>142.5202593608332</v>
       </c>
       <c r="V26" t="n">
-        <v>223.8408431906616</v>
+        <v>223.8408431906617</v>
       </c>
       <c r="W26" t="n">
-        <v>249.1409426686185</v>
+        <v>249.1409426686186</v>
       </c>
       <c r="X26" t="n">
         <v>268.4412009013652</v>
       </c>
       <c r="Y26" t="n">
-        <v>279.8377986975639</v>
+        <v>279.837798697564</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.4266772089115</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S27" t="n">
         <v>145.3600385256214</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.95117682517962</v>
+        <v>71.95117682517967</v>
       </c>
       <c r="C28" t="n">
-        <v>58.1511716705801</v>
+        <v>58.15117167058015</v>
       </c>
       <c r="D28" t="n">
-        <v>41.77253606815849</v>
+        <v>41.77253606815854</v>
       </c>
       <c r="E28" t="n">
-        <v>40.72028592393794</v>
+        <v>40.72028592393799</v>
       </c>
       <c r="F28" t="n">
-        <v>41.18721025212425</v>
+        <v>41.1872102521243</v>
       </c>
       <c r="G28" t="n">
-        <v>57.19509837661146</v>
+        <v>57.19509837661152</v>
       </c>
       <c r="H28" t="n">
-        <v>45.63805627134717</v>
+        <v>45.63805627134723</v>
       </c>
       <c r="I28" t="n">
-        <v>24.96853317721977</v>
+        <v>24.96853317721983</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.26097088965805</v>
+        <v>26.2609708896581</v>
       </c>
       <c r="S28" t="n">
-        <v>97.15417605088557</v>
+        <v>97.15417605088562</v>
       </c>
       <c r="T28" t="n">
-        <v>119.9384994753534</v>
+        <v>119.9384994753535</v>
       </c>
       <c r="U28" t="n">
         <v>174.5351454199696</v>
@@ -2801,7 +2801,7 @@
         <v>281.0692245225978</v>
       </c>
       <c r="F29" t="n">
-        <v>300.2410406105749</v>
+        <v>300.241040610575</v>
       </c>
       <c r="G29" t="n">
         <v>301.5794911335435</v>
@@ -2810,7 +2810,7 @@
         <v>213.6327500501803</v>
       </c>
       <c r="I29" t="n">
-        <v>38.38869180229742</v>
+        <v>38.38869180229749</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.03364652322249</v>
+        <v>62.03364652322254</v>
       </c>
       <c r="T29" t="n">
-        <v>109.7429055772701</v>
+        <v>109.7429055772702</v>
       </c>
       <c r="U29" t="n">
         <v>142.5202593608332</v>
@@ -2858,7 +2858,7 @@
         <v>268.4412009013652</v>
       </c>
       <c r="Y29" t="n">
-        <v>279.8377986975639</v>
+        <v>279.837798697564</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.4266772089115</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S30" t="n">
         <v>145.3600385256214</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.95117682517963</v>
+        <v>71.95117682517967</v>
       </c>
       <c r="C31" t="n">
-        <v>58.15117167058011</v>
+        <v>58.15117167058015</v>
       </c>
       <c r="D31" t="n">
-        <v>41.7725360681585</v>
+        <v>41.77253606815854</v>
       </c>
       <c r="E31" t="n">
-        <v>40.72028592393795</v>
+        <v>40.72028592393799</v>
       </c>
       <c r="F31" t="n">
-        <v>41.18721025212426</v>
+        <v>41.1872102521243</v>
       </c>
       <c r="G31" t="n">
-        <v>57.19509837661148</v>
+        <v>57.19509837661152</v>
       </c>
       <c r="H31" t="n">
-        <v>45.63805627134719</v>
+        <v>45.63805627134723</v>
       </c>
       <c r="I31" t="n">
-        <v>24.96853317721978</v>
+        <v>24.96853317721983</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.26097088965806</v>
+        <v>26.2609708896581</v>
       </c>
       <c r="S31" t="n">
-        <v>97.15417605088558</v>
+        <v>97.15417605088562</v>
       </c>
       <c r="T31" t="n">
         <v>119.9384994753535</v>
@@ -3035,19 +3035,19 @@
         <v>259.3270869526923</v>
       </c>
       <c r="E32" t="n">
-        <v>281.0692245225979</v>
+        <v>281.0692245225978</v>
       </c>
       <c r="F32" t="n">
-        <v>300.2410406105751</v>
+        <v>300.2410406105749</v>
       </c>
       <c r="G32" t="n">
-        <v>301.5794911335436</v>
+        <v>301.5794911335435</v>
       </c>
       <c r="H32" t="n">
-        <v>213.6327500501804</v>
+        <v>213.6327500501803</v>
       </c>
       <c r="I32" t="n">
-        <v>38.38869180229747</v>
+        <v>38.38869180229744</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.03364652322253</v>
+        <v>62.0336465232225</v>
       </c>
       <c r="T32" t="n">
-        <v>109.7429055772702</v>
+        <v>109.7429055772701</v>
       </c>
       <c r="U32" t="n">
-        <v>142.5202593608333</v>
+        <v>142.5202593608332</v>
       </c>
       <c r="V32" t="n">
         <v>223.8408431906617</v>
@@ -3092,10 +3092,10 @@
         <v>249.1409426686186</v>
       </c>
       <c r="X32" t="n">
-        <v>268.4412009013653</v>
+        <v>268.4412009013652</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.837798697564</v>
+        <v>279.8377986975639</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.4266772089115</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S33" t="n">
         <v>145.3600385256214</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.95117682517969</v>
+        <v>71.95117682517963</v>
       </c>
       <c r="C34" t="n">
-        <v>58.15117167058017</v>
+        <v>58.15117167058011</v>
       </c>
       <c r="D34" t="n">
-        <v>41.77253606815856</v>
+        <v>41.7725360681585</v>
       </c>
       <c r="E34" t="n">
-        <v>40.72028592393801</v>
+        <v>40.72028592393795</v>
       </c>
       <c r="F34" t="n">
-        <v>41.18721025212432</v>
+        <v>41.18721025212426</v>
       </c>
       <c r="G34" t="n">
-        <v>57.19509837661153</v>
+        <v>57.19509837661148</v>
       </c>
       <c r="H34" t="n">
-        <v>45.63805627134725</v>
+        <v>45.63805627134719</v>
       </c>
       <c r="I34" t="n">
-        <v>24.96853317721984</v>
+        <v>24.96853317721978</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.26097088965812</v>
+        <v>26.26097088965806</v>
       </c>
       <c r="S34" t="n">
-        <v>97.15417605088564</v>
+        <v>97.15417605088558</v>
       </c>
       <c r="T34" t="n">
         <v>119.9384994753535</v>
       </c>
       <c r="U34" t="n">
-        <v>174.5351454199697</v>
+        <v>174.5351454199696</v>
       </c>
       <c r="V34" t="n">
-        <v>148.3593132248053</v>
+        <v>148.3593132248052</v>
       </c>
       <c r="W34" t="n">
         <v>173.5261992954185</v>
       </c>
       <c r="X34" t="n">
-        <v>119.1713012912217</v>
+        <v>119.1713012912216</v>
       </c>
       <c r="Y34" t="n">
         <v>110.0461690472893</v>
@@ -3269,16 +3269,16 @@
         <v>229.9570911058669</v>
       </c>
       <c r="D35" t="n">
-        <v>220.9383951503949</v>
+        <v>220.9383951503948</v>
       </c>
       <c r="E35" t="n">
         <v>242.6805327203004</v>
       </c>
       <c r="F35" t="n">
-        <v>261.8523488082776</v>
+        <v>261.8523488082775</v>
       </c>
       <c r="G35" t="n">
-        <v>263.1907993312461</v>
+        <v>263.190799331246</v>
       </c>
       <c r="H35" t="n">
         <v>175.2440582478829</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>23.64495472092507</v>
+        <v>23.64495472092506</v>
       </c>
       <c r="T35" t="n">
-        <v>71.35421377497271</v>
+        <v>71.35421377497269</v>
       </c>
       <c r="U35" t="n">
-        <v>104.1315675585358</v>
+        <v>104.1315675585357</v>
       </c>
       <c r="V35" t="n">
-        <v>185.4521513883643</v>
+        <v>185.4521513883642</v>
       </c>
       <c r="W35" t="n">
-        <v>210.7522508663212</v>
+        <v>210.7522508663211</v>
       </c>
       <c r="X35" t="n">
-        <v>230.0525090990678</v>
+        <v>230.0525090990677</v>
       </c>
       <c r="Y35" t="n">
         <v>241.4491068952665</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.4266772089115</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S36" t="n">
         <v>145.3600385256214</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.56248502288221</v>
+        <v>33.56248502288219</v>
       </c>
       <c r="C37" t="n">
-        <v>19.7624798682827</v>
+        <v>19.76247986828267</v>
       </c>
       <c r="D37" t="n">
-        <v>3.383844265861086</v>
+        <v>3.383844265861057</v>
       </c>
       <c r="E37" t="n">
-        <v>2.331594121640535</v>
+        <v>2.331594121640507</v>
       </c>
       <c r="F37" t="n">
-        <v>2.798518449826844</v>
+        <v>2.798518449826815</v>
       </c>
       <c r="G37" t="n">
-        <v>18.80640657431406</v>
+        <v>18.80640657431403</v>
       </c>
       <c r="H37" t="n">
-        <v>7.249364469049775</v>
+        <v>7.249364469049747</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>58.76548424858817</v>
+        <v>58.76548424858814</v>
       </c>
       <c r="T37" t="n">
-        <v>81.54980767305604</v>
+        <v>81.54980767305601</v>
       </c>
       <c r="U37" t="n">
         <v>136.1464536176722</v>
@@ -3484,13 +3484,13 @@
         <v>109.9706214225078</v>
       </c>
       <c r="W37" t="n">
-        <v>135.1375074931211</v>
+        <v>135.137507493121</v>
       </c>
       <c r="X37" t="n">
-        <v>80.78260948892418</v>
+        <v>80.78260948892415</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.65747724499187</v>
+        <v>71.65747724499184</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3506,16 @@
         <v>229.9570911058669</v>
       </c>
       <c r="D38" t="n">
-        <v>220.9383951503949</v>
+        <v>220.9383951503948</v>
       </c>
       <c r="E38" t="n">
         <v>242.6805327203004</v>
       </c>
       <c r="F38" t="n">
-        <v>261.8523488082776</v>
+        <v>261.8523488082775</v>
       </c>
       <c r="G38" t="n">
-        <v>263.1907993312461</v>
+        <v>263.190799331246</v>
       </c>
       <c r="H38" t="n">
         <v>175.2440582478829</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>23.64495472092507</v>
+        <v>23.64495472092504</v>
       </c>
       <c r="T38" t="n">
-        <v>71.35421377497271</v>
+        <v>71.35421377497268</v>
       </c>
       <c r="U38" t="n">
-        <v>104.1315675585358</v>
+        <v>104.1315675585357</v>
       </c>
       <c r="V38" t="n">
-        <v>185.4521513883643</v>
+        <v>185.4521513883642</v>
       </c>
       <c r="W38" t="n">
-        <v>210.7522508663212</v>
+        <v>210.7522508663211</v>
       </c>
       <c r="X38" t="n">
-        <v>230.0525090990678</v>
+        <v>230.0525090990677</v>
       </c>
       <c r="Y38" t="n">
         <v>241.4491068952665</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.4266772089115</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S39" t="n">
         <v>145.3600385256214</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.56248502288221</v>
+        <v>33.56248502288219</v>
       </c>
       <c r="C40" t="n">
-        <v>19.7624798682827</v>
+        <v>19.76247986828267</v>
       </c>
       <c r="D40" t="n">
-        <v>3.383844265861086</v>
+        <v>3.383844265861057</v>
       </c>
       <c r="E40" t="n">
-        <v>2.331594121640535</v>
+        <v>2.331594121640507</v>
       </c>
       <c r="F40" t="n">
-        <v>2.798518449826844</v>
+        <v>2.798518449826815</v>
       </c>
       <c r="G40" t="n">
-        <v>18.80640657431406</v>
+        <v>18.80640657431403</v>
       </c>
       <c r="H40" t="n">
-        <v>7.249364469049775</v>
+        <v>7.249364469049747</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>58.76548424858817</v>
+        <v>58.76548424858814</v>
       </c>
       <c r="T40" t="n">
-        <v>81.54980767305604</v>
+        <v>81.54980767305601</v>
       </c>
       <c r="U40" t="n">
         <v>136.1464536176722</v>
@@ -3721,13 +3721,13 @@
         <v>109.9706214225078</v>
       </c>
       <c r="W40" t="n">
-        <v>135.1375074931211</v>
+        <v>135.137507493121</v>
       </c>
       <c r="X40" t="n">
-        <v>80.78260948892418</v>
+        <v>80.78260948892415</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.65747724499187</v>
+        <v>71.65747724499184</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.64495472092504</v>
+        <v>23.64495472092506</v>
       </c>
       <c r="T41" t="n">
-        <v>71.35421377497268</v>
+        <v>71.35421377497269</v>
       </c>
       <c r="U41" t="n">
         <v>104.1315675585357</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.4266772089115</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S42" t="n">
         <v>145.3600385256214</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.4266772089115</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S45" t="n">
         <v>145.3600385256214</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>443.6391111751425</v>
+        <v>421.214307176792</v>
       </c>
       <c r="C11" t="n">
-        <v>293.7610330754321</v>
+        <v>271.3362290770816</v>
       </c>
       <c r="D11" t="n">
-        <v>293.7610330754321</v>
+        <v>271.3362290770816</v>
       </c>
       <c r="E11" t="n">
-        <v>293.7610330754321</v>
+        <v>271.3362290770816</v>
       </c>
       <c r="F11" t="n">
-        <v>161.7484218852074</v>
+        <v>271.3362290770816</v>
       </c>
       <c r="G11" t="n">
-        <v>11.87034378549706</v>
+        <v>121.458150977372</v>
       </c>
       <c r="H11" t="n">
         <v>11.87034378549706</v>
@@ -5072,19 +5072,19 @@
         <v>593.5171892748529</v>
       </c>
       <c r="U11" t="n">
-        <v>593.5171892748529</v>
+        <v>555.7601807590862</v>
       </c>
       <c r="V11" t="n">
-        <v>593.5171892748529</v>
+        <v>435.8611683748059</v>
       </c>
       <c r="W11" t="n">
-        <v>593.5171892748529</v>
+        <v>435.8611683748059</v>
       </c>
       <c r="X11" t="n">
-        <v>443.6391111751425</v>
+        <v>435.8611683748059</v>
       </c>
       <c r="Y11" t="n">
-        <v>443.6391111751425</v>
+        <v>435.8611683748059</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.0176050765357</v>
+        <v>108.7034773030858</v>
       </c>
       <c r="C12" t="n">
-        <v>166.0176050765357</v>
+        <v>108.7034773030858</v>
       </c>
       <c r="D12" t="n">
-        <v>166.0176050765357</v>
+        <v>108.7034773030858</v>
       </c>
       <c r="E12" t="n">
-        <v>166.0176050765357</v>
+        <v>108.7034773030858</v>
       </c>
       <c r="F12" t="n">
-        <v>166.0176050765357</v>
+        <v>108.7034773030858</v>
       </c>
       <c r="G12" t="n">
-        <v>166.0176050765357</v>
+        <v>108.7034773030858</v>
       </c>
       <c r="H12" t="n">
-        <v>69.18447155894702</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="I12" t="n">
         <v>11.87034378549706</v>
@@ -5121,49 +5121,49 @@
         <v>101.8919603545</v>
       </c>
       <c r="K12" t="n">
-        <v>152.8306762382746</v>
+        <v>248.787464700026</v>
       </c>
       <c r="L12" t="n">
-        <v>152.8306762382746</v>
+        <v>395.6829690455521</v>
       </c>
       <c r="M12" t="n">
-        <v>299.7261805838007</v>
+        <v>446.6216849293268</v>
       </c>
       <c r="N12" t="n">
         <v>446.6216849293268</v>
       </c>
       <c r="O12" t="n">
-        <v>446.6216849293268</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="P12" t="n">
-        <v>446.6216849293268</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="Q12" t="n">
         <v>593.5171892748529</v>
       </c>
       <c r="R12" t="n">
-        <v>553.6922628012048</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="S12" t="n">
-        <v>553.6922628012048</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="T12" t="n">
-        <v>403.8141847014945</v>
+        <v>443.6391111751425</v>
       </c>
       <c r="U12" t="n">
-        <v>351.4466510550452</v>
+        <v>293.7610330754321</v>
       </c>
       <c r="V12" t="n">
-        <v>340.1312902231576</v>
+        <v>258.5815554027961</v>
       </c>
       <c r="W12" t="n">
-        <v>315.8956831762461</v>
+        <v>108.7034773030858</v>
       </c>
       <c r="X12" t="n">
-        <v>315.8956831762461</v>
+        <v>108.7034773030858</v>
       </c>
       <c r="Y12" t="n">
-        <v>166.0176050765357</v>
+        <v>108.7034773030858</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.7484218852074</v>
+        <v>12.02467301830979</v>
       </c>
       <c r="C13" t="n">
-        <v>11.87034378549706</v>
+        <v>12.02467301830979</v>
       </c>
       <c r="D13" t="n">
-        <v>11.87034378549706</v>
+        <v>12.02467301830979</v>
       </c>
       <c r="E13" t="n">
-        <v>11.87034378549706</v>
+        <v>12.02467301830979</v>
       </c>
       <c r="F13" t="n">
-        <v>11.87034378549706</v>
+        <v>12.02467301830979</v>
       </c>
       <c r="G13" t="n">
-        <v>11.87034378549706</v>
+        <v>12.02467301830979</v>
       </c>
       <c r="H13" t="n">
         <v>11.87034378549706</v>
@@ -5200,19 +5200,19 @@
         <v>11.87034378549706</v>
       </c>
       <c r="K13" t="n">
-        <v>76.1635464610489</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="L13" t="n">
-        <v>163.9266339202108</v>
+        <v>151.7487964392836</v>
       </c>
       <c r="M13" t="n">
-        <v>310.8221382657369</v>
+        <v>298.6443007848097</v>
       </c>
       <c r="N13" t="n">
-        <v>457.717642611263</v>
+        <v>362.8018463134221</v>
       </c>
       <c r="O13" t="n">
-        <v>593.5171892748529</v>
+        <v>498.601392977012</v>
       </c>
       <c r="P13" t="n">
         <v>593.5171892748529</v>
@@ -5224,25 +5224,25 @@
         <v>593.5171892748529</v>
       </c>
       <c r="S13" t="n">
-        <v>458.4319319879146</v>
+        <v>443.6391111751425</v>
       </c>
       <c r="T13" t="n">
-        <v>443.4847819423295</v>
+        <v>293.7610330754321</v>
       </c>
       <c r="U13" t="n">
-        <v>293.6067038426191</v>
+        <v>143.8829549757218</v>
       </c>
       <c r="V13" t="n">
-        <v>249.9516611208201</v>
+        <v>100.2279122539228</v>
       </c>
       <c r="W13" t="n">
-        <v>180.8755213579977</v>
+        <v>31.15177249110022</v>
       </c>
       <c r="X13" t="n">
-        <v>166.7033189731519</v>
+        <v>16.97957010625434</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.7484218852074</v>
+        <v>12.02467301830979</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>161.7484218852074</v>
+        <v>405.8821026593758</v>
       </c>
       <c r="C14" t="n">
-        <v>161.7484218852074</v>
+        <v>405.8821026593758</v>
       </c>
       <c r="D14" t="n">
-        <v>161.7484218852074</v>
+        <v>405.8821026593758</v>
       </c>
       <c r="E14" t="n">
-        <v>11.87034378549706</v>
+        <v>271.3362290770823</v>
       </c>
       <c r="F14" t="n">
-        <v>11.87034378549706</v>
+        <v>271.3362290770823</v>
       </c>
       <c r="G14" t="n">
-        <v>11.87034378549706</v>
+        <v>121.458150977372</v>
       </c>
       <c r="H14" t="n">
         <v>11.87034378549706</v>
@@ -5279,16 +5279,16 @@
         <v>11.87034378549706</v>
       </c>
       <c r="K14" t="n">
-        <v>11.87034378549706</v>
+        <v>158.7658481310231</v>
       </c>
       <c r="L14" t="n">
-        <v>152.8306762382746</v>
+        <v>158.7658481310231</v>
       </c>
       <c r="M14" t="n">
-        <v>299.7261805838007</v>
+        <v>305.6613524765493</v>
       </c>
       <c r="N14" t="n">
-        <v>446.6216849293268</v>
+        <v>452.5568568220754</v>
       </c>
       <c r="O14" t="n">
         <v>593.5171892748529</v>
@@ -5306,22 +5306,22 @@
         <v>593.5171892748529</v>
       </c>
       <c r="T14" t="n">
-        <v>588.8686189243015</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="U14" t="n">
-        <v>551.1116104085349</v>
+        <v>555.7601807590862</v>
       </c>
       <c r="V14" t="n">
-        <v>461.5045780846281</v>
+        <v>555.7601807590862</v>
       </c>
       <c r="W14" t="n">
-        <v>461.5045780846281</v>
+        <v>555.7601807590862</v>
       </c>
       <c r="X14" t="n">
-        <v>461.5045780846281</v>
+        <v>555.7601807590862</v>
       </c>
       <c r="Y14" t="n">
-        <v>311.6264999849177</v>
+        <v>405.8821026593758</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.87034378549706</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="C15" t="n">
-        <v>11.87034378549706</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="D15" t="n">
-        <v>11.87034378549706</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="E15" t="n">
-        <v>11.87034378549706</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="F15" t="n">
-        <v>11.87034378549706</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="G15" t="n">
-        <v>11.87034378549706</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="H15" t="n">
-        <v>11.87034378549706</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="I15" t="n">
         <v>11.87034378549706</v>
@@ -5358,22 +5358,22 @@
         <v>101.8919603545</v>
       </c>
       <c r="K15" t="n">
-        <v>152.8306762382746</v>
+        <v>101.8919603545</v>
       </c>
       <c r="L15" t="n">
+        <v>248.787464700026</v>
+      </c>
+      <c r="M15" t="n">
+        <v>248.787464700026</v>
+      </c>
+      <c r="N15" t="n">
+        <v>248.787464700026</v>
+      </c>
+      <c r="O15" t="n">
         <v>299.7261805838007</v>
       </c>
-      <c r="M15" t="n">
-        <v>299.7261805838007</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>446.6216849293268</v>
-      </c>
-      <c r="O15" t="n">
-        <v>446.6216849293268</v>
-      </c>
-      <c r="P15" t="n">
-        <v>593.5171892748529</v>
       </c>
       <c r="Q15" t="n">
         <v>593.5171892748529</v>
@@ -5382,25 +5382,25 @@
         <v>553.6922628012048</v>
       </c>
       <c r="S15" t="n">
-        <v>553.6922628012048</v>
+        <v>406.8639410581529</v>
       </c>
       <c r="T15" t="n">
-        <v>553.6922628012048</v>
+        <v>256.9858629584426</v>
       </c>
       <c r="U15" t="n">
-        <v>403.8141847014945</v>
+        <v>254.6135175374566</v>
       </c>
       <c r="V15" t="n">
-        <v>392.4988238696069</v>
+        <v>243.298156705569</v>
       </c>
       <c r="W15" t="n">
-        <v>311.6264999849177</v>
+        <v>219.0625496586574</v>
       </c>
       <c r="X15" t="n">
-        <v>161.7484218852074</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.87034378549706</v>
+        <v>69.18447155894702</v>
       </c>
     </row>
     <row r="16">
@@ -5440,16 +5440,16 @@
         <v>11.87034378549706</v>
       </c>
       <c r="L16" t="n">
-        <v>151.7487964392837</v>
+        <v>69.01083762236993</v>
       </c>
       <c r="M16" t="n">
-        <v>298.6443007848097</v>
+        <v>215.906341967896</v>
       </c>
       <c r="N16" t="n">
-        <v>445.5398051303358</v>
+        <v>362.8018463134221</v>
       </c>
       <c r="O16" t="n">
-        <v>581.3393517939257</v>
+        <v>498.601392977012</v>
       </c>
       <c r="P16" t="n">
         <v>593.5171892748529</v>
@@ -5458,28 +5458,28 @@
         <v>577.5476096519869</v>
       </c>
       <c r="R16" t="n">
-        <v>440.1439641348006</v>
+        <v>577.5476096519869</v>
       </c>
       <c r="S16" t="n">
-        <v>375.9969916630399</v>
+        <v>499.4348352221808</v>
       </c>
       <c r="T16" t="n">
-        <v>361.0498416174548</v>
+        <v>484.4876851765956</v>
       </c>
       <c r="U16" t="n">
-        <v>290.9545643550858</v>
+        <v>334.6096070768853</v>
       </c>
       <c r="V16" t="n">
-        <v>141.0764862553755</v>
+        <v>290.9545643550862</v>
       </c>
       <c r="W16" t="n">
-        <v>72.00034649255312</v>
+        <v>221.8784245922637</v>
       </c>
       <c r="X16" t="n">
-        <v>57.82814410770737</v>
+        <v>207.7062222074178</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.87324701976294</v>
+        <v>202.7513251194733</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>357.7277941659735</v>
+        <v>357.7277941659731</v>
       </c>
       <c r="C17" t="n">
-        <v>302.462104410434</v>
+        <v>302.4621044104337</v>
       </c>
       <c r="D17" t="n">
-        <v>256.3062085493107</v>
+        <v>256.3062085493104</v>
       </c>
       <c r="E17" t="n">
-        <v>188.1885575670708</v>
+        <v>188.1885575670705</v>
       </c>
       <c r="F17" t="n">
-        <v>100.7054357888943</v>
+        <v>100.7054357888942</v>
       </c>
       <c r="G17" t="n">
         <v>11.87034378549706</v>
@@ -5516,16 +5516,16 @@
         <v>11.87034378549706</v>
       </c>
       <c r="K17" t="n">
+        <v>11.87034378549706</v>
+      </c>
+      <c r="L17" t="n">
         <v>158.7658481310231</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>305.6613524765493</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>452.5568568220754</v>
-      </c>
-      <c r="N17" t="n">
-        <v>593.5171892748529</v>
       </c>
       <c r="O17" t="n">
         <v>593.5171892748529</v>
@@ -5552,13 +5552,13 @@
         <v>583.2059840824475</v>
       </c>
       <c r="W17" t="n">
-        <v>547.3391228517016</v>
+        <v>547.3391228517012</v>
       </c>
       <c r="X17" t="n">
-        <v>491.9770512848482</v>
+        <v>491.9770512848478</v>
       </c>
       <c r="Y17" t="n">
-        <v>425.1032647723394</v>
+        <v>425.103264772339</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>293.7610330754321</v>
+        <v>300.5870588949953</v>
       </c>
       <c r="C18" t="n">
-        <v>293.7610330754321</v>
+        <v>150.708980795285</v>
       </c>
       <c r="D18" t="n">
-        <v>154.9223960656442</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="E18" t="n">
         <v>11.87034378549706</v>
@@ -5598,10 +5598,10 @@
         <v>152.8306762382746</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7261805838007</v>
+        <v>152.8306762382746</v>
       </c>
       <c r="M18" t="n">
-        <v>299.7261805838007</v>
+        <v>152.8306762382746</v>
       </c>
       <c r="N18" t="n">
         <v>299.7261805838007</v>
@@ -5616,28 +5616,28 @@
         <v>593.5171892748529</v>
       </c>
       <c r="R18" t="n">
-        <v>593.5171892748529</v>
+        <v>553.6922628012048</v>
       </c>
       <c r="S18" t="n">
-        <v>593.5171892748529</v>
+        <v>406.8639410581529</v>
       </c>
       <c r="T18" t="n">
-        <v>593.5171892748529</v>
+        <v>300.5870588949953</v>
       </c>
       <c r="U18" t="n">
-        <v>593.5171892748529</v>
+        <v>300.5870588949953</v>
       </c>
       <c r="V18" t="n">
-        <v>593.5171892748529</v>
+        <v>300.5870588949953</v>
       </c>
       <c r="W18" t="n">
-        <v>593.5171892748529</v>
+        <v>300.5870588949953</v>
       </c>
       <c r="X18" t="n">
-        <v>593.5171892748529</v>
+        <v>300.5870588949953</v>
       </c>
       <c r="Y18" t="n">
-        <v>443.6391111751425</v>
+        <v>300.5870588949953</v>
       </c>
     </row>
     <row r="19">
@@ -5674,19 +5674,19 @@
         <v>11.87034378549706</v>
       </c>
       <c r="K19" t="n">
-        <v>24.04818126642419</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="L19" t="n">
-        <v>163.9266339202108</v>
+        <v>69.01083762236993</v>
       </c>
       <c r="M19" t="n">
-        <v>310.8221382657369</v>
+        <v>215.906341967896</v>
       </c>
       <c r="N19" t="n">
-        <v>457.717642611263</v>
+        <v>362.8018463134221</v>
       </c>
       <c r="O19" t="n">
-        <v>593.5171892748529</v>
+        <v>498.601392977012</v>
       </c>
       <c r="P19" t="n">
         <v>593.5171892748529</v>
@@ -5695,28 +5695,28 @@
         <v>577.5476096519869</v>
       </c>
       <c r="R19" t="n">
-        <v>577.5476096519869</v>
+        <v>440.1439641348006</v>
       </c>
       <c r="S19" t="n">
-        <v>577.5476096519869</v>
+        <v>290.2658860350903</v>
       </c>
       <c r="T19" t="n">
-        <v>577.5476096519869</v>
+        <v>161.7484218852074</v>
       </c>
       <c r="U19" t="n">
-        <v>461.5045780846281</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="V19" t="n">
-        <v>461.5045780846281</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="W19" t="n">
-        <v>461.5045780846281</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="X19" t="n">
-        <v>311.6264999849177</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.7484218852074</v>
+        <v>11.87034378549706</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>357.727794165974</v>
+        <v>357.727794165973</v>
       </c>
       <c r="C20" t="n">
-        <v>302.4621044104347</v>
+        <v>302.4621044104335</v>
       </c>
       <c r="D20" t="n">
-        <v>256.3062085493113</v>
+        <v>256.3062085493104</v>
       </c>
       <c r="E20" t="n">
-        <v>188.1885575670715</v>
+        <v>188.1885575670706</v>
       </c>
       <c r="F20" t="n">
-        <v>100.7054357888941</v>
+        <v>100.7054357888944</v>
       </c>
       <c r="G20" t="n">
         <v>11.87034378549706</v>
@@ -5750,19 +5750,19 @@
         <v>11.87034378549706</v>
       </c>
       <c r="J20" t="n">
-        <v>11.87034378549706</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="K20" t="n">
-        <v>11.87034378549706</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="L20" t="n">
-        <v>11.87034378549706</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="M20" t="n">
-        <v>158.7658481310231</v>
+        <v>133.8484253820179</v>
       </c>
       <c r="N20" t="n">
-        <v>158.7658481310231</v>
+        <v>152.8306762382746</v>
       </c>
       <c r="O20" t="n">
         <v>299.7261805838007</v>
@@ -5786,16 +5786,16 @@
         <v>593.5171892748529</v>
       </c>
       <c r="V20" t="n">
-        <v>583.2059840824475</v>
+        <v>583.205984082447</v>
       </c>
       <c r="W20" t="n">
-        <v>547.3391228517017</v>
+        <v>547.3391228517012</v>
       </c>
       <c r="X20" t="n">
-        <v>491.9770512848487</v>
+        <v>491.9770512848478</v>
       </c>
       <c r="Y20" t="n">
-        <v>425.1032647723399</v>
+        <v>425.1032647723389</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>140.2773737089234</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="C21" t="n">
-        <v>140.2773737089234</v>
+        <v>489.7449165619894</v>
       </c>
       <c r="D21" t="n">
-        <v>140.2773737089234</v>
+        <v>350.9062795522015</v>
       </c>
       <c r="E21" t="n">
-        <v>140.2773737089234</v>
+        <v>203.8782696090727</v>
       </c>
       <c r="F21" t="n">
-        <v>140.2773737089234</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="G21" t="n">
-        <v>11.87034378549706</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="H21" t="n">
-        <v>11.87034378549706</v>
+        <v>69.18447155894702</v>
       </c>
       <c r="I21" t="n">
         <v>11.87034378549706</v>
       </c>
       <c r="J21" t="n">
-        <v>101.8919603545</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="K21" t="n">
-        <v>152.8306762382746</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="L21" t="n">
-        <v>152.8306762382746</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="M21" t="n">
-        <v>299.7261805838007</v>
+        <v>11.87034378549706</v>
       </c>
       <c r="N21" t="n">
-        <v>299.7261805838007</v>
+        <v>158.7658481310231</v>
       </c>
       <c r="O21" t="n">
-        <v>446.6216849293268</v>
+        <v>305.6613524765493</v>
       </c>
       <c r="P21" t="n">
-        <v>446.6216849293268</v>
+        <v>452.5568568220754</v>
       </c>
       <c r="Q21" t="n">
         <v>593.5171892748529</v>
@@ -5862,19 +5862,19 @@
         <v>593.5171892748529</v>
       </c>
       <c r="U21" t="n">
-        <v>443.6391111751425</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="V21" t="n">
-        <v>443.6391111751425</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="W21" t="n">
-        <v>440.033529908344</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="X21" t="n">
-        <v>290.1554518086337</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="Y21" t="n">
-        <v>140.2773737089234</v>
+        <v>593.5171892748529</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>311.6264999849177</v>
+        <v>352.6294032191836</v>
       </c>
       <c r="C22" t="n">
-        <v>311.6264999849177</v>
+        <v>202.7513251194733</v>
       </c>
       <c r="D22" t="n">
-        <v>311.6264999849177</v>
+        <v>202.7513251194733</v>
       </c>
       <c r="E22" t="n">
-        <v>311.6264999849177</v>
+        <v>202.7513251194733</v>
       </c>
       <c r="F22" t="n">
-        <v>311.6264999849177</v>
+        <v>202.7513251194733</v>
       </c>
       <c r="G22" t="n">
-        <v>161.7484218852074</v>
+        <v>52.87324701976294</v>
       </c>
       <c r="H22" t="n">
-        <v>11.87034378549706</v>
+        <v>52.87324701976294</v>
       </c>
       <c r="I22" t="n">
-        <v>11.87034378549706</v>
+        <v>52.87324701976294</v>
       </c>
       <c r="J22" t="n">
         <v>11.87034378549706</v>
       </c>
       <c r="K22" t="n">
-        <v>11.87034378549706</v>
+        <v>24.04818126642422</v>
       </c>
       <c r="L22" t="n">
-        <v>151.7487964392837</v>
+        <v>163.9266339202108</v>
       </c>
       <c r="M22" t="n">
-        <v>298.6443007848097</v>
+        <v>310.8221382657369</v>
       </c>
       <c r="N22" t="n">
-        <v>445.5398051303358</v>
+        <v>457.717642611263</v>
       </c>
       <c r="O22" t="n">
-        <v>581.3393517939257</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="P22" t="n">
         <v>593.5171892748529</v>
       </c>
       <c r="Q22" t="n">
-        <v>577.5476096519869</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="R22" t="n">
-        <v>577.5476096519869</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="S22" t="n">
-        <v>577.5476096519869</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="T22" t="n">
-        <v>577.5476096519869</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="U22" t="n">
-        <v>577.5476096519869</v>
+        <v>593.5171892748529</v>
       </c>
       <c r="V22" t="n">
-        <v>461.5045780846281</v>
+        <v>443.6391111751425</v>
       </c>
       <c r="W22" t="n">
-        <v>461.5045780846281</v>
+        <v>443.6391111751425</v>
       </c>
       <c r="X22" t="n">
-        <v>461.5045780846281</v>
+        <v>443.6391111751425</v>
       </c>
       <c r="Y22" t="n">
-        <v>311.6264999849177</v>
+        <v>443.6391111751425</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>357.7277941659729</v>
+        <v>357.7277941659722</v>
       </c>
       <c r="C23" t="n">
-        <v>302.4621044104335</v>
+        <v>302.4621044104329</v>
       </c>
       <c r="D23" t="n">
-        <v>256.3062085493104</v>
+        <v>256.3062085493097</v>
       </c>
       <c r="E23" t="n">
-        <v>188.1885575670705</v>
+        <v>188.1885575670698</v>
       </c>
       <c r="F23" t="n">
         <v>100.7054357888941</v>
       </c>
       <c r="G23" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="H23" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="I23" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="J23" t="n">
-        <v>133.8484253820179</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="K23" t="n">
-        <v>280.743929727544</v>
+        <v>158.7658481310228</v>
       </c>
       <c r="L23" t="n">
-        <v>427.6394340730701</v>
+        <v>305.6613524765485</v>
       </c>
       <c r="M23" t="n">
-        <v>446.6216849293268</v>
+        <v>452.5568568220742</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5171892748529</v>
+        <v>593.5171892748514</v>
       </c>
       <c r="O23" t="n">
-        <v>593.5171892748529</v>
+        <v>593.5171892748514</v>
       </c>
       <c r="P23" t="n">
-        <v>593.5171892748529</v>
+        <v>593.5171892748514</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.5171892748529</v>
+        <v>593.5171892748514</v>
       </c>
       <c r="R23" t="n">
-        <v>593.5171892748529</v>
+        <v>593.5171892748514</v>
       </c>
       <c r="S23" t="n">
-        <v>593.5171892748529</v>
+        <v>593.5171892748514</v>
       </c>
       <c r="T23" t="n">
-        <v>593.5171892748529</v>
+        <v>593.5171892748514</v>
       </c>
       <c r="U23" t="n">
-        <v>593.5171892748518</v>
+        <v>593.5171892748514</v>
       </c>
       <c r="V23" t="n">
-        <v>583.2059840824464</v>
+        <v>583.205984082446</v>
       </c>
       <c r="W23" t="n">
-        <v>547.3391228517007</v>
+        <v>547.3391228517003</v>
       </c>
       <c r="X23" t="n">
-        <v>491.9770512848474</v>
+        <v>491.9770512848469</v>
       </c>
       <c r="Y23" t="n">
-        <v>425.1032647723387</v>
+        <v>425.1032647723381</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.87034378549706</v>
+        <v>553.6922628012034</v>
       </c>
       <c r="C24" t="n">
-        <v>11.87034378549706</v>
+        <v>553.6922628012034</v>
       </c>
       <c r="D24" t="n">
-        <v>11.87034378549706</v>
+        <v>553.6922628012034</v>
       </c>
       <c r="E24" t="n">
-        <v>11.87034378549706</v>
+        <v>406.6642528580746</v>
       </c>
       <c r="F24" t="n">
-        <v>11.87034378549706</v>
+        <v>271.970454807949</v>
       </c>
       <c r="G24" t="n">
-        <v>11.87034378549706</v>
+        <v>143.5634248845226</v>
       </c>
       <c r="H24" t="n">
-        <v>11.87034378549706</v>
+        <v>46.73029136693393</v>
       </c>
       <c r="I24" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="J24" t="n">
-        <v>101.8919603545</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="K24" t="n">
-        <v>248.787464700026</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="L24" t="n">
-        <v>395.6829690455521</v>
+        <v>158.7658481310228</v>
       </c>
       <c r="M24" t="n">
-        <v>395.6829690455521</v>
+        <v>158.7658481310228</v>
       </c>
       <c r="N24" t="n">
-        <v>395.6829690455521</v>
+        <v>299.7261805837999</v>
       </c>
       <c r="O24" t="n">
-        <v>542.5784733910782</v>
+        <v>299.7261805837999</v>
       </c>
       <c r="P24" t="n">
-        <v>542.5784733910782</v>
+        <v>446.6216849293256</v>
       </c>
       <c r="Q24" t="n">
-        <v>593.5171892748529</v>
+        <v>593.5171892748514</v>
       </c>
       <c r="R24" t="n">
-        <v>593.5171892748529</v>
+        <v>553.6922628012034</v>
       </c>
       <c r="S24" t="n">
-        <v>593.5171892748529</v>
+        <v>553.6922628012034</v>
       </c>
       <c r="T24" t="n">
-        <v>593.5171892748529</v>
+        <v>553.6922628012034</v>
       </c>
       <c r="U24" t="n">
-        <v>443.6391111751425</v>
+        <v>553.6922628012034</v>
       </c>
       <c r="V24" t="n">
-        <v>293.7610330754321</v>
+        <v>553.6922628012034</v>
       </c>
       <c r="W24" t="n">
-        <v>161.7484218852074</v>
+        <v>553.6922628012034</v>
       </c>
       <c r="X24" t="n">
-        <v>11.87034378549706</v>
+        <v>553.6922628012034</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.87034378549706</v>
+        <v>553.6922628012034</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="C25" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="D25" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="E25" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="F25" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="G25" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="H25" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="I25" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="J25" t="n">
-        <v>11.87034378549706</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="K25" t="n">
-        <v>11.87034378549706</v>
+        <v>76.16354646104887</v>
       </c>
       <c r="L25" t="n">
-        <v>151.7487964392837</v>
+        <v>76.16354646104887</v>
       </c>
       <c r="M25" t="n">
-        <v>298.6443007848097</v>
+        <v>223.0590508065746</v>
       </c>
       <c r="N25" t="n">
-        <v>445.5398051303358</v>
+        <v>369.9545551521003</v>
       </c>
       <c r="O25" t="n">
-        <v>581.3393517939257</v>
+        <v>505.7541018156901</v>
       </c>
       <c r="P25" t="n">
-        <v>593.5171892748529</v>
+        <v>593.5171892748514</v>
       </c>
       <c r="Q25" t="n">
-        <v>593.5171892748529</v>
+        <v>577.5476096519855</v>
       </c>
       <c r="R25" t="n">
-        <v>593.5171892748529</v>
+        <v>440.1439641347991</v>
       </c>
       <c r="S25" t="n">
-        <v>593.5171892748529</v>
+        <v>290.2658860350892</v>
       </c>
       <c r="T25" t="n">
-        <v>461.5045780846281</v>
+        <v>140.3878079353792</v>
       </c>
       <c r="U25" t="n">
-        <v>311.6264999849177</v>
+        <v>140.3878079353792</v>
       </c>
       <c r="V25" t="n">
-        <v>161.7484218852074</v>
+        <v>140.3878079353792</v>
       </c>
       <c r="W25" t="n">
-        <v>161.7484218852074</v>
+        <v>140.3878079353792</v>
       </c>
       <c r="X25" t="n">
-        <v>161.7484218852074</v>
+        <v>11.87034378549703</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.7484218852074</v>
+        <v>11.87034378549703</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1746.961357696817</v>
+        <v>1746.961357696816</v>
       </c>
       <c r="C26" t="n">
-        <v>1475.905011324934</v>
+        <v>1475.905011324933</v>
       </c>
       <c r="D26" t="n">
-        <v>1213.958458847467</v>
+        <v>1213.958458847466</v>
       </c>
       <c r="E26" t="n">
-        <v>930.0501512488831</v>
+        <v>930.0501512488827</v>
       </c>
       <c r="F26" t="n">
         <v>626.7763728543628</v>
@@ -6218,31 +6218,31 @@
         <v>322.1506242346218</v>
       </c>
       <c r="H26" t="n">
-        <v>106.3599676182775</v>
+        <v>106.3599676182776</v>
       </c>
       <c r="I26" t="n">
-        <v>67.58351125232053</v>
+        <v>67.58351125232055</v>
       </c>
       <c r="J26" t="n">
-        <v>189.5615928488414</v>
+        <v>189.5615928488413</v>
       </c>
       <c r="K26" t="n">
-        <v>504.608335483371</v>
+        <v>613.2792872740038</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.092636749909</v>
+        <v>1141.208631288574</v>
       </c>
       <c r="M26" t="n">
-        <v>1659.403033832707</v>
+        <v>1637.848076580738</v>
       </c>
       <c r="N26" t="n">
-        <v>2251.478747966647</v>
+        <v>2121.252838924046</v>
       </c>
       <c r="O26" t="n">
-        <v>2764.372119771152</v>
+        <v>2634.14621072855</v>
       </c>
       <c r="P26" t="n">
-        <v>3077.209143375727</v>
+        <v>3055.654186123758</v>
       </c>
       <c r="Q26" t="n">
         <v>3322.348640499042</v>
@@ -6254,13 +6254,13 @@
         <v>3316.515313602671</v>
       </c>
       <c r="T26" t="n">
-        <v>3205.66389382765</v>
+        <v>3205.663893827651</v>
       </c>
       <c r="U26" t="n">
         <v>3061.704035887415</v>
       </c>
       <c r="V26" t="n">
-        <v>2835.602174078665</v>
+        <v>2835.602174078666</v>
       </c>
       <c r="W26" t="n">
         <v>2583.944656231576</v>
@@ -6269,7 +6269,7 @@
         <v>2312.791928048379</v>
       </c>
       <c r="Y26" t="n">
-        <v>2030.127484919527</v>
+        <v>2030.127484919526</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>124.8976390257705</v>
       </c>
       <c r="I27" t="n">
-        <v>67.58351125232053</v>
+        <v>67.58351125232055</v>
       </c>
       <c r="J27" t="n">
-        <v>67.58351125232053</v>
+        <v>157.6051278213234</v>
       </c>
       <c r="K27" t="n">
-        <v>122.7534617188927</v>
+        <v>437.9730279657288</v>
       </c>
       <c r="L27" t="n">
-        <v>556.9861793706511</v>
+        <v>826.1595678736205</v>
       </c>
       <c r="M27" t="n">
-        <v>1121.851794334559</v>
+        <v>1391.025182837529</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.062624323734</v>
+        <v>1984.236012826703</v>
       </c>
       <c r="O27" t="n">
-        <v>2182.226409054187</v>
+        <v>1984.236012826703</v>
       </c>
       <c r="P27" t="n">
-        <v>2544.487414000135</v>
+        <v>2346.497017772651</v>
       </c>
       <c r="Q27" t="n">
         <v>2544.487414000135</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>380.3440079593702</v>
+        <v>380.3440079593706</v>
       </c>
       <c r="C28" t="n">
-        <v>321.60545071636</v>
+        <v>321.6054507163603</v>
       </c>
       <c r="D28" t="n">
-        <v>279.4109698394323</v>
+        <v>279.4109698394325</v>
       </c>
       <c r="E28" t="n">
-        <v>238.2793678960606</v>
+        <v>238.2793678960608</v>
       </c>
       <c r="F28" t="n">
-        <v>196.6761252171472</v>
+        <v>196.6761252171474</v>
       </c>
       <c r="G28" t="n">
-        <v>138.9032985741053</v>
+        <v>138.9032985741055</v>
       </c>
       <c r="H28" t="n">
-        <v>92.80425183537081</v>
+        <v>92.80425183537088</v>
       </c>
       <c r="I28" t="n">
-        <v>67.58351125232053</v>
+        <v>67.58351125232055</v>
       </c>
       <c r="J28" t="n">
-        <v>136.0675175830494</v>
+        <v>136.0675175830493</v>
       </c>
       <c r="K28" t="n">
-        <v>200.3607202586012</v>
+        <v>215.2611494662137</v>
       </c>
       <c r="L28" t="n">
-        <v>448.9101247030206</v>
+        <v>463.8105539106331</v>
       </c>
       <c r="M28" t="n">
-        <v>716.9807394642642</v>
+        <v>731.8811686718766</v>
       </c>
       <c r="N28" t="n">
-        <v>890.7251214020689</v>
+        <v>890.7251214020703</v>
       </c>
       <c r="O28" t="n">
-        <v>1135.195619856292</v>
+        <v>1135.195619856293</v>
       </c>
       <c r="P28" t="n">
-        <v>1338.782367944765</v>
+        <v>1338.782367944767</v>
       </c>
       <c r="Q28" t="n">
-        <v>1431.801534747027</v>
+        <v>1431.801534747029</v>
       </c>
       <c r="R28" t="n">
-        <v>1405.275301525151</v>
+        <v>1405.275301525152</v>
       </c>
       <c r="S28" t="n">
-        <v>1307.13977016062</v>
+        <v>1307.139770160621</v>
       </c>
       <c r="T28" t="n">
-        <v>1185.989770690566</v>
+        <v>1185.989770690567</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.691644003728</v>
+        <v>1009.691644003729</v>
       </c>
       <c r="V28" t="n">
-        <v>859.83375185746</v>
+        <v>859.8337518574607</v>
       </c>
       <c r="W28" t="n">
-        <v>684.5547626701687</v>
+        <v>684.5547626701692</v>
       </c>
       <c r="X28" t="n">
-        <v>564.1797108608539</v>
+        <v>564.1797108608545</v>
       </c>
       <c r="Y28" t="n">
-        <v>453.0219643484405</v>
+        <v>453.021964348441</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1746.961357696816</v>
+        <v>1746.961357696817</v>
       </c>
       <c r="C29" t="n">
         <v>1475.905011324933</v>
@@ -6446,40 +6446,40 @@
         <v>1213.958458847466</v>
       </c>
       <c r="E29" t="n">
-        <v>930.0501512488826</v>
+        <v>930.0501512488822</v>
       </c>
       <c r="F29" t="n">
-        <v>626.7763728543624</v>
+        <v>626.7763728543623</v>
       </c>
       <c r="G29" t="n">
-        <v>322.1506242346215</v>
+        <v>322.1506242346214</v>
       </c>
       <c r="H29" t="n">
-        <v>106.3599676182775</v>
+        <v>106.3599676182776</v>
       </c>
       <c r="I29" t="n">
         <v>67.58351125232053</v>
       </c>
       <c r="J29" t="n">
-        <v>189.5615928488414</v>
+        <v>189.5615928488413</v>
       </c>
       <c r="K29" t="n">
         <v>504.608335483371</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.092636749909</v>
+        <v>945.4216849592765</v>
       </c>
       <c r="M29" t="n">
-        <v>1659.403033832707</v>
+        <v>1529.177124790105</v>
       </c>
       <c r="N29" t="n">
-        <v>2251.478747966647</v>
+        <v>2121.252838924045</v>
       </c>
       <c r="O29" t="n">
-        <v>2764.372119771151</v>
+        <v>2634.146210728549</v>
       </c>
       <c r="P29" t="n">
-        <v>3077.209143375727</v>
+        <v>3055.654186123757</v>
       </c>
       <c r="Q29" t="n">
         <v>3322.348640499042</v>
@@ -6488,13 +6488,13 @@
         <v>3379.175562616027</v>
       </c>
       <c r="S29" t="n">
-        <v>3316.515313602671</v>
+        <v>3316.51531360267</v>
       </c>
       <c r="T29" t="n">
         <v>3205.66389382765</v>
       </c>
       <c r="U29" t="n">
-        <v>3061.704035887414</v>
+        <v>3061.704035887415</v>
       </c>
       <c r="V29" t="n">
         <v>2835.602174078665</v>
@@ -6503,7 +6503,7 @@
         <v>2583.944656231576</v>
       </c>
       <c r="X29" t="n">
-        <v>2312.791928048378</v>
+        <v>2312.791928048379</v>
       </c>
       <c r="Y29" t="n">
         <v>2030.127484919526</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>380.3440079593703</v>
+        <v>380.3440079593706</v>
       </c>
       <c r="C31" t="n">
-        <v>321.6054507163601</v>
+        <v>321.6054507163603</v>
       </c>
       <c r="D31" t="n">
-        <v>279.4109698394323</v>
+        <v>279.4109698394325</v>
       </c>
       <c r="E31" t="n">
-        <v>238.2793678960606</v>
+        <v>238.2793678960608</v>
       </c>
       <c r="F31" t="n">
-        <v>196.6761252171472</v>
+        <v>196.6761252171474</v>
       </c>
       <c r="G31" t="n">
-        <v>138.9032985741053</v>
+        <v>138.9032985741054</v>
       </c>
       <c r="H31" t="n">
-        <v>92.80425183537082</v>
+        <v>92.80425183537086</v>
       </c>
       <c r="I31" t="n">
         <v>67.58351125232053</v>
       </c>
       <c r="J31" t="n">
-        <v>136.0675175830494</v>
+        <v>136.0675175830493</v>
       </c>
       <c r="K31" t="n">
-        <v>200.3607202586012</v>
+        <v>309.0316720492339</v>
       </c>
       <c r="L31" t="n">
-        <v>448.9101247030206</v>
+        <v>463.8105539106334</v>
       </c>
       <c r="M31" t="n">
-        <v>716.9807394642642</v>
+        <v>731.8811686718768</v>
       </c>
       <c r="N31" t="n">
-        <v>984.4956439850905</v>
+        <v>999.3960731927032</v>
       </c>
       <c r="O31" t="n">
-        <v>1135.195619856292</v>
+        <v>1243.866571646926</v>
       </c>
       <c r="P31" t="n">
-        <v>1338.782367944766</v>
+        <v>1338.782367944767</v>
       </c>
       <c r="Q31" t="n">
-        <v>1431.801534747028</v>
+        <v>1431.801534747029</v>
       </c>
       <c r="R31" t="n">
-        <v>1405.275301525151</v>
+        <v>1405.275301525152</v>
       </c>
       <c r="S31" t="n">
-        <v>1307.13977016062</v>
+        <v>1307.139770160621</v>
       </c>
       <c r="T31" t="n">
-        <v>1185.989770690566</v>
+        <v>1185.989770690567</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.691644003728</v>
+        <v>1009.691644003729</v>
       </c>
       <c r="V31" t="n">
-        <v>859.8337518574604</v>
+        <v>859.8337518574607</v>
       </c>
       <c r="W31" t="n">
-        <v>684.5547626701689</v>
+        <v>684.5547626701692</v>
       </c>
       <c r="X31" t="n">
-        <v>564.1797108608541</v>
+        <v>564.1797108608545</v>
       </c>
       <c r="Y31" t="n">
-        <v>453.0219643484407</v>
+        <v>453.021964348441</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1746.961357696817</v>
       </c>
       <c r="C32" t="n">
-        <v>1475.905011324933</v>
+        <v>1475.905011324934</v>
       </c>
       <c r="D32" t="n">
-        <v>1213.958458847466</v>
+        <v>1213.958458847467</v>
       </c>
       <c r="E32" t="n">
-        <v>930.0501512488827</v>
+        <v>930.050151248883</v>
       </c>
       <c r="F32" t="n">
-        <v>626.7763728543624</v>
+        <v>626.7763728543628</v>
       </c>
       <c r="G32" t="n">
-        <v>322.1506242346213</v>
+        <v>322.1506242346222</v>
       </c>
       <c r="H32" t="n">
         <v>106.3599676182776</v>
@@ -6698,25 +6698,25 @@
         <v>67.58351125232053</v>
       </c>
       <c r="J32" t="n">
-        <v>298.2325446394741</v>
+        <v>189.5615928488413</v>
       </c>
       <c r="K32" t="n">
-        <v>613.2792872740038</v>
+        <v>504.608335483371</v>
       </c>
       <c r="L32" t="n">
-        <v>1162.763588540542</v>
+        <v>1054.092636749909</v>
       </c>
       <c r="M32" t="n">
-        <v>1768.073985623339</v>
+        <v>1550.732082042073</v>
       </c>
       <c r="N32" t="n">
-        <v>2360.149699757279</v>
+        <v>2121.252838924045</v>
       </c>
       <c r="O32" t="n">
-        <v>2764.372119771151</v>
+        <v>2634.146210728549</v>
       </c>
       <c r="P32" t="n">
-        <v>3077.209143375726</v>
+        <v>3055.654186123757</v>
       </c>
       <c r="Q32" t="n">
         <v>3322.348640499042</v>
@@ -6728,7 +6728,7 @@
         <v>3316.515313602671</v>
       </c>
       <c r="T32" t="n">
-        <v>3205.66389382765</v>
+        <v>3205.663893827651</v>
       </c>
       <c r="U32" t="n">
         <v>3061.704035887415</v>
@@ -6743,7 +6743,7 @@
         <v>2312.791928048379</v>
       </c>
       <c r="Y32" t="n">
-        <v>2030.127484919526</v>
+        <v>2030.127484919527</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6783,16 @@
         <v>437.9730279657288</v>
       </c>
       <c r="L33" t="n">
-        <v>872.2057456174873</v>
+        <v>437.9730279657288</v>
       </c>
       <c r="M33" t="n">
-        <v>1286.122403053024</v>
+        <v>1002.838642929637</v>
       </c>
       <c r="N33" t="n">
-        <v>1879.333233042199</v>
+        <v>1596.049472918811</v>
       </c>
       <c r="O33" t="n">
-        <v>2346.497017772651</v>
+        <v>2063.213257649265</v>
       </c>
       <c r="P33" t="n">
         <v>2346.497017772651</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.3440079593707</v>
+        <v>380.3440079593703</v>
       </c>
       <c r="C34" t="n">
-        <v>321.6054507163605</v>
+        <v>321.6054507163601</v>
       </c>
       <c r="D34" t="n">
-        <v>279.4109698394326</v>
+        <v>279.4109698394323</v>
       </c>
       <c r="E34" t="n">
-        <v>238.2793678960609</v>
+        <v>238.2793678960606</v>
       </c>
       <c r="F34" t="n">
-        <v>196.6761252171474</v>
+        <v>196.6761252171472</v>
       </c>
       <c r="G34" t="n">
-        <v>138.9032985741055</v>
+        <v>138.9032985741053</v>
       </c>
       <c r="H34" t="n">
-        <v>92.80425183537088</v>
+        <v>92.80425183537082</v>
       </c>
       <c r="I34" t="n">
         <v>67.58351125232053</v>
       </c>
       <c r="J34" t="n">
-        <v>136.0675175830493</v>
+        <v>136.0675175830494</v>
       </c>
       <c r="K34" t="n">
-        <v>215.2611494662142</v>
+        <v>215.2611494662128</v>
       </c>
       <c r="L34" t="n">
-        <v>463.8105539106336</v>
+        <v>463.8105539106322</v>
       </c>
       <c r="M34" t="n">
-        <v>731.881168671877</v>
+        <v>731.8811686718757</v>
       </c>
       <c r="N34" t="n">
-        <v>999.3960731927034</v>
+        <v>890.7251214020694</v>
       </c>
       <c r="O34" t="n">
-        <v>1243.866571646926</v>
+        <v>1135.195619856292</v>
       </c>
       <c r="P34" t="n">
-        <v>1338.782367944767</v>
+        <v>1338.782367944766</v>
       </c>
       <c r="Q34" t="n">
-        <v>1431.801534747029</v>
+        <v>1431.801534747028</v>
       </c>
       <c r="R34" t="n">
-        <v>1405.275301525152</v>
+        <v>1405.275301525151</v>
       </c>
       <c r="S34" t="n">
-        <v>1307.139770160621</v>
+        <v>1307.13977016062</v>
       </c>
       <c r="T34" t="n">
-        <v>1185.989770690567</v>
+        <v>1185.989770690566</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.691644003729</v>
+        <v>1009.691644003728</v>
       </c>
       <c r="V34" t="n">
-        <v>859.8337518574608</v>
+        <v>859.8337518574604</v>
       </c>
       <c r="W34" t="n">
-        <v>684.5547626701693</v>
+        <v>684.5547626701689</v>
       </c>
       <c r="X34" t="n">
-        <v>564.1797108608546</v>
+        <v>564.1797108608541</v>
       </c>
       <c r="Y34" t="n">
-        <v>453.0219643484411</v>
+        <v>453.0219643484407</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1008.205833232184</v>
       </c>
       <c r="E35" t="n">
-        <v>763.0739819995568</v>
+        <v>763.0739819995573</v>
       </c>
       <c r="F35" t="n">
-        <v>498.5766599709937</v>
+        <v>498.5766599709941</v>
       </c>
       <c r="G35" t="n">
-        <v>232.7273677172103</v>
+        <v>232.7273677172102</v>
       </c>
       <c r="H35" t="n">
         <v>55.71316746682347</v>
@@ -6935,25 +6935,25 @@
         <v>55.71316746682347</v>
       </c>
       <c r="J35" t="n">
-        <v>177.6912490633443</v>
+        <v>174.6711273921681</v>
       </c>
       <c r="K35" t="n">
-        <v>492.737991697874</v>
+        <v>489.7178700266978</v>
       </c>
       <c r="L35" t="n">
-        <v>933.5513411737795</v>
+        <v>930.5312195026032</v>
       </c>
       <c r="M35" t="n">
-        <v>1430.190786465944</v>
+        <v>1427.170664794767</v>
       </c>
       <c r="N35" t="n">
-        <v>1913.595548809252</v>
+        <v>1910.575427138075</v>
       </c>
       <c r="O35" t="n">
-        <v>2317.817968823123</v>
+        <v>2314.797847151946</v>
       </c>
       <c r="P35" t="n">
-        <v>2630.654992427699</v>
+        <v>2627.634870756522</v>
       </c>
       <c r="Q35" t="n">
         <v>2785.658373341174</v>
@@ -6962,7 +6962,7 @@
         <v>2785.658373341174</v>
       </c>
       <c r="S35" t="n">
-        <v>2761.774580693775</v>
+        <v>2761.774580693774</v>
       </c>
       <c r="T35" t="n">
         <v>2689.699617284711</v>
@@ -6974,7 +6974,7 @@
         <v>2397.190810267641</v>
       </c>
       <c r="W35" t="n">
-        <v>2184.309748786509</v>
+        <v>2184.309748786508</v>
       </c>
       <c r="X35" t="n">
         <v>1951.933476969268</v>
@@ -7014,16 +7014,16 @@
         <v>55.71316746682347</v>
       </c>
       <c r="J36" t="n">
-        <v>145.7347840358264</v>
+        <v>55.71316746682347</v>
       </c>
       <c r="K36" t="n">
-        <v>426.1026841802317</v>
+        <v>336.0810676112288</v>
       </c>
       <c r="L36" t="n">
-        <v>860.3354018319901</v>
+        <v>347.1254393576708</v>
       </c>
       <c r="M36" t="n">
-        <v>1425.201016795898</v>
+        <v>911.9910543215788</v>
       </c>
       <c r="N36" t="n">
         <v>1505.201884310753</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.5941853950811</v>
+        <v>110.5941853950809</v>
       </c>
       <c r="C37" t="n">
-        <v>90.63208451802782</v>
+        <v>90.63208451802767</v>
       </c>
       <c r="D37" t="n">
-        <v>87.21406000705703</v>
+        <v>87.2140600070569</v>
       </c>
       <c r="E37" t="n">
-        <v>84.85891442964234</v>
+        <v>84.85891442964225</v>
       </c>
       <c r="F37" t="n">
-        <v>82.03212811668593</v>
+        <v>82.03212811668587</v>
       </c>
       <c r="G37" t="n">
-        <v>63.03575783960102</v>
+        <v>63.03575783960099</v>
       </c>
       <c r="H37" t="n">
         <v>55.71316746682347</v>
@@ -7102,43 +7102,43 @@
         <v>259.8848227961619</v>
       </c>
       <c r="M37" t="n">
-        <v>419.2844857667726</v>
+        <v>419.2844857667725</v>
       </c>
       <c r="N37" t="n">
-        <v>578.1284384969663</v>
+        <v>578.1284384969661</v>
       </c>
       <c r="O37" t="n">
-        <v>713.9279851605561</v>
+        <v>713.9279851605559</v>
       </c>
       <c r="P37" t="n">
-        <v>808.843781458397</v>
+        <v>808.8437814583967</v>
       </c>
       <c r="Q37" t="n">
-        <v>813.3073843296928</v>
+        <v>813.3073843296924</v>
       </c>
       <c r="R37" t="n">
-        <v>825.3138280332058</v>
+        <v>825.3138280332054</v>
       </c>
       <c r="S37" t="n">
-        <v>765.9547530346319</v>
+        <v>765.9547530346315</v>
       </c>
       <c r="T37" t="n">
-        <v>683.5812099305349</v>
+        <v>683.5812099305346</v>
       </c>
       <c r="U37" t="n">
-        <v>546.0595396096539</v>
+        <v>546.0595396096536</v>
       </c>
       <c r="V37" t="n">
-        <v>434.978103829343</v>
+        <v>434.9781038293427</v>
       </c>
       <c r="W37" t="n">
-        <v>298.4755710080086</v>
+        <v>298.4755710080083</v>
       </c>
       <c r="X37" t="n">
-        <v>216.8769755646508</v>
+        <v>216.8769755646506</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.4956854181944</v>
+        <v>144.4956854181942</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1463.655819349619</v>
+        <v>1463.65581934962</v>
       </c>
       <c r="C38" t="n">
-        <v>1231.375929343693</v>
+        <v>1231.375929343694</v>
       </c>
       <c r="D38" t="n">
-        <v>1008.205833232183</v>
+        <v>1008.205833232184</v>
       </c>
       <c r="E38" t="n">
-        <v>763.0739819995564</v>
+        <v>763.0739819995573</v>
       </c>
       <c r="F38" t="n">
-        <v>498.5766599709932</v>
+        <v>498.5766599709941</v>
       </c>
       <c r="G38" t="n">
-        <v>232.7273677172093</v>
+        <v>232.7273677172102</v>
       </c>
       <c r="H38" t="n">
         <v>55.71316746682347</v>
@@ -7172,13 +7172,13 @@
         <v>55.71316746682347</v>
       </c>
       <c r="J38" t="n">
-        <v>177.6912490633443</v>
+        <v>174.6711273921681</v>
       </c>
       <c r="K38" t="n">
-        <v>492.737991697874</v>
+        <v>489.7178700266978</v>
       </c>
       <c r="L38" t="n">
-        <v>930.5312195026031</v>
+        <v>930.5312195026032</v>
       </c>
       <c r="M38" t="n">
         <v>1427.170664794767</v>
@@ -7202,22 +7202,22 @@
         <v>2761.774580693775</v>
       </c>
       <c r="T38" t="n">
-        <v>2689.699617284711</v>
+        <v>2689.699617284712</v>
       </c>
       <c r="U38" t="n">
-        <v>2584.516215710432</v>
+        <v>2584.516215710433</v>
       </c>
       <c r="V38" t="n">
-        <v>2397.19081026764</v>
+        <v>2397.190810267641</v>
       </c>
       <c r="W38" t="n">
-        <v>2184.309748786507</v>
+        <v>2184.309748786508</v>
       </c>
       <c r="X38" t="n">
         <v>1951.933476969268</v>
       </c>
       <c r="Y38" t="n">
-        <v>1708.045490206372</v>
+        <v>1708.045490206373</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>145.7347840358264</v>
       </c>
       <c r="K39" t="n">
-        <v>145.7347840358264</v>
+        <v>426.1026841802317</v>
       </c>
       <c r="L39" t="n">
-        <v>579.9675016875849</v>
+        <v>426.1026841802317</v>
       </c>
       <c r="M39" t="n">
-        <v>1144.833116651493</v>
+        <v>990.9682991441397</v>
       </c>
       <c r="N39" t="n">
-        <v>1505.201884310753</v>
+        <v>1584.179129133314</v>
       </c>
       <c r="O39" t="n">
-        <v>1972.365669041206</v>
+        <v>2051.342913863767</v>
       </c>
       <c r="P39" t="n">
-        <v>2334.626673987154</v>
+        <v>2413.603918809715</v>
       </c>
       <c r="Q39" t="n">
         <v>2532.617070214638</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.5941853950811</v>
+        <v>110.5941853950809</v>
       </c>
       <c r="C40" t="n">
-        <v>90.63208451802782</v>
+        <v>90.63208451802767</v>
       </c>
       <c r="D40" t="n">
-        <v>87.21406000705703</v>
+        <v>87.2140600070569</v>
       </c>
       <c r="E40" t="n">
-        <v>84.85891442964234</v>
+        <v>84.85891442964225</v>
       </c>
       <c r="F40" t="n">
-        <v>82.03212811668593</v>
+        <v>82.03212811668587</v>
       </c>
       <c r="G40" t="n">
-        <v>63.03575783960102</v>
+        <v>63.03575783960099</v>
       </c>
       <c r="H40" t="n">
         <v>55.71316746682347</v>
@@ -7339,43 +7339,43 @@
         <v>259.8848227961619</v>
       </c>
       <c r="M40" t="n">
-        <v>419.2844857667726</v>
+        <v>419.2844857667725</v>
       </c>
       <c r="N40" t="n">
-        <v>578.1284384969663</v>
+        <v>578.1284384969661</v>
       </c>
       <c r="O40" t="n">
-        <v>713.9279851605561</v>
+        <v>713.9279851605559</v>
       </c>
       <c r="P40" t="n">
-        <v>808.843781458397</v>
+        <v>808.8437814583967</v>
       </c>
       <c r="Q40" t="n">
-        <v>825.3138280332058</v>
+        <v>813.3073843296924</v>
       </c>
       <c r="R40" t="n">
-        <v>825.3138280332058</v>
+        <v>825.3138280332054</v>
       </c>
       <c r="S40" t="n">
-        <v>765.9547530346319</v>
+        <v>765.9547530346315</v>
       </c>
       <c r="T40" t="n">
-        <v>683.5812099305349</v>
+        <v>683.5812099305346</v>
       </c>
       <c r="U40" t="n">
-        <v>546.0595396096539</v>
+        <v>546.0595396096536</v>
       </c>
       <c r="V40" t="n">
-        <v>434.978103829343</v>
+        <v>434.9781038293427</v>
       </c>
       <c r="W40" t="n">
-        <v>298.4755710080086</v>
+        <v>298.4755710080083</v>
       </c>
       <c r="X40" t="n">
-        <v>216.8769755646508</v>
+        <v>216.8769755646506</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.4956854181944</v>
+        <v>144.4956854181942</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1463.65581934962</v>
+        <v>1463.655819349619</v>
       </c>
       <c r="C41" t="n">
-        <v>1231.375929343694</v>
+        <v>1231.375929343693</v>
       </c>
       <c r="D41" t="n">
-        <v>1008.205833232184</v>
+        <v>1008.205833232183</v>
       </c>
       <c r="E41" t="n">
-        <v>763.0739819995573</v>
+        <v>763.0739819995567</v>
       </c>
       <c r="F41" t="n">
         <v>498.5766599709941</v>
@@ -7412,19 +7412,19 @@
         <v>177.6912490633443</v>
       </c>
       <c r="K41" t="n">
-        <v>492.737991697874</v>
+        <v>492.7379916978739</v>
       </c>
       <c r="L41" t="n">
-        <v>933.5513411737795</v>
+        <v>933.5513411737793</v>
       </c>
       <c r="M41" t="n">
-        <v>1430.190786465944</v>
+        <v>1430.190786465943</v>
       </c>
       <c r="N41" t="n">
-        <v>1913.595548809252</v>
+        <v>1913.595548809251</v>
       </c>
       <c r="O41" t="n">
-        <v>2314.797847151946</v>
+        <v>2317.817968823122</v>
       </c>
       <c r="P41" t="n">
         <v>2627.634870756522</v>
@@ -7442,19 +7442,19 @@
         <v>2689.699617284711</v>
       </c>
       <c r="U41" t="n">
-        <v>2584.516215710433</v>
+        <v>2584.516215710432</v>
       </c>
       <c r="V41" t="n">
-        <v>2397.190810267641</v>
+        <v>2397.19081026764</v>
       </c>
       <c r="W41" t="n">
-        <v>2184.309748786508</v>
+        <v>2184.309748786507</v>
       </c>
       <c r="X41" t="n">
-        <v>1951.933476969268</v>
+        <v>1951.933476969267</v>
       </c>
       <c r="Y41" t="n">
-        <v>1708.045490206373</v>
+        <v>1708.045490206372</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>55.71316746682347</v>
       </c>
       <c r="K42" t="n">
-        <v>55.71316746682347</v>
+        <v>336.0810676112288</v>
       </c>
       <c r="L42" t="n">
-        <v>489.9458851185819</v>
+        <v>770.3137852629873</v>
       </c>
       <c r="M42" t="n">
-        <v>1054.81150008249</v>
+        <v>1335.179400226895</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.022330071665</v>
+        <v>1928.39023021607</v>
       </c>
       <c r="O42" t="n">
-        <v>2115.186114802118</v>
+        <v>2395.554014946523</v>
       </c>
       <c r="P42" t="n">
-        <v>2477.447119748066</v>
+        <v>2395.554014946523</v>
       </c>
       <c r="Q42" t="n">
         <v>2532.617070214638</v>
@@ -7576,16 +7576,16 @@
         <v>259.8848227961619</v>
       </c>
       <c r="M43" t="n">
-        <v>419.2844857667726</v>
+        <v>419.2844857667725</v>
       </c>
       <c r="N43" t="n">
-        <v>578.1284384969663</v>
+        <v>578.1284384969661</v>
       </c>
       <c r="O43" t="n">
-        <v>713.9279851605561</v>
+        <v>713.9279851605559</v>
       </c>
       <c r="P43" t="n">
-        <v>808.843781458397</v>
+        <v>808.8437814583967</v>
       </c>
       <c r="Q43" t="n">
         <v>813.3073843296924</v>
@@ -7646,25 +7646,25 @@
         <v>55.71316746682347</v>
       </c>
       <c r="J44" t="n">
-        <v>177.6912490633443</v>
+        <v>174.6711273921681</v>
       </c>
       <c r="K44" t="n">
-        <v>492.737991697874</v>
+        <v>489.7178700266978</v>
       </c>
       <c r="L44" t="n">
-        <v>933.5513411737795</v>
+        <v>930.5312195026032</v>
       </c>
       <c r="M44" t="n">
-        <v>1430.190786465944</v>
+        <v>1427.170664794767</v>
       </c>
       <c r="N44" t="n">
-        <v>1913.595548809252</v>
+        <v>1910.575427138075</v>
       </c>
       <c r="O44" t="n">
-        <v>2317.817968823123</v>
+        <v>2314.797847151946</v>
       </c>
       <c r="P44" t="n">
-        <v>2630.654992427699</v>
+        <v>2627.634870756522</v>
       </c>
       <c r="Q44" t="n">
         <v>2785.658373341174</v>
@@ -7676,7 +7676,7 @@
         <v>2761.774580693775</v>
       </c>
       <c r="T44" t="n">
-        <v>2689.699617284712</v>
+        <v>2689.699617284711</v>
       </c>
       <c r="U44" t="n">
         <v>2584.516215710433</v>
@@ -7725,25 +7725,25 @@
         <v>55.71316746682347</v>
       </c>
       <c r="J45" t="n">
-        <v>55.71316746682347</v>
+        <v>145.7347840358264</v>
       </c>
       <c r="K45" t="n">
-        <v>55.71316746682347</v>
+        <v>426.1026841802317</v>
       </c>
       <c r="L45" t="n">
-        <v>489.9458851185819</v>
+        <v>860.3354018319901</v>
       </c>
       <c r="M45" t="n">
-        <v>1054.81150008249</v>
+        <v>1425.201016795898</v>
       </c>
       <c r="N45" t="n">
-        <v>1648.022330071665</v>
+        <v>2018.411846785073</v>
       </c>
       <c r="O45" t="n">
-        <v>2115.186114802118</v>
+        <v>2485.575631515526</v>
       </c>
       <c r="P45" t="n">
-        <v>2477.447119748066</v>
+        <v>2532.617070214638</v>
       </c>
       <c r="Q45" t="n">
         <v>2532.617070214638</v>
@@ -7804,28 +7804,28 @@
         <v>55.71316746682347</v>
       </c>
       <c r="J46" t="n">
-        <v>72.18321404163183</v>
+        <v>55.71316746682347</v>
       </c>
       <c r="K46" t="n">
-        <v>136.4764167171837</v>
+        <v>120.0063701423753</v>
       </c>
       <c r="L46" t="n">
-        <v>276.3548693709703</v>
+        <v>259.8848227961619</v>
       </c>
       <c r="M46" t="n">
-        <v>435.754532341581</v>
+        <v>419.2844857667725</v>
       </c>
       <c r="N46" t="n">
-        <v>594.5984850717746</v>
+        <v>578.1284384969661</v>
       </c>
       <c r="O46" t="n">
-        <v>730.3980317353645</v>
+        <v>713.9279851605559</v>
       </c>
       <c r="P46" t="n">
-        <v>825.3138280332054</v>
+        <v>808.8437814583967</v>
       </c>
       <c r="Q46" t="n">
-        <v>825.3138280332054</v>
+        <v>813.3073843296924</v>
       </c>
       <c r="R46" t="n">
         <v>825.3138280332054</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>96.6154162928668</v>
+        <v>96.61541629286683</v>
       </c>
       <c r="K11" t="n">
         <v>103.1600033783428</v>
       </c>
       <c r="L11" t="n">
-        <v>97.69356934396383</v>
+        <v>97.69356934396384</v>
       </c>
       <c r="M11" t="n">
-        <v>82.71158819506186</v>
+        <v>82.71158819506188</v>
       </c>
       <c r="N11" t="n">
         <v>228.6426603236787</v>
@@ -8708,7 +8708,7 @@
         <v>250.7206244016654</v>
       </c>
       <c r="Q11" t="n">
-        <v>264.7690855961332</v>
+        <v>264.7690855961333</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8769,25 +8769,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0581573480384</v>
+        <v>208.9842062993025</v>
       </c>
       <c r="L12" t="n">
-        <v>43.47354217554893</v>
+        <v>191.8528394942622</v>
       </c>
       <c r="M12" t="n">
-        <v>183.2245519473414</v>
+        <v>86.29850299607733</v>
       </c>
       <c r="N12" t="n">
-        <v>172.3215253904087</v>
+        <v>23.94222807169548</v>
       </c>
       <c r="O12" t="n">
-        <v>40.13840422090708</v>
+        <v>188.5177015396203</v>
       </c>
       <c r="P12" t="n">
-        <v>48.08139221580916</v>
+        <v>48.08139221580917</v>
       </c>
       <c r="Q12" t="n">
-        <v>221.4894721556366</v>
+        <v>73.11017483692342</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8848,22 +8848,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
-        <v>138.7668962480483</v>
+        <v>73.8242672828444</v>
       </c>
       <c r="L13" t="n">
-        <v>158.5753289791473</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M13" t="n">
-        <v>219.4320959246181</v>
+        <v>219.4320959246182</v>
       </c>
       <c r="N13" t="n">
-        <v>211.2938921153078</v>
+        <v>127.7201963406475</v>
       </c>
       <c r="O13" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P13" t="n">
-        <v>79.63399059326262</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q13" t="n">
         <v>84.9458458910769</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>96.6154162928668</v>
+        <v>96.61541629286683</v>
       </c>
       <c r="K14" t="n">
-        <v>103.1600033783428</v>
+        <v>251.539300697056</v>
       </c>
       <c r="L14" t="n">
-        <v>240.0777435386886</v>
+        <v>97.69356934396384</v>
       </c>
       <c r="M14" t="n">
         <v>231.0908855137751</v>
@@ -8939,7 +8939,7 @@
         <v>228.6426603236787</v>
       </c>
       <c r="O14" t="n">
-        <v>235.114058198796</v>
+        <v>229.1189350748076</v>
       </c>
       <c r="P14" t="n">
         <v>102.3413270829522</v>
@@ -9006,25 +9006,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0581573480384</v>
+        <v>60.60490898058926</v>
       </c>
       <c r="L15" t="n">
         <v>191.8528394942622</v>
       </c>
       <c r="M15" t="n">
-        <v>34.84525462862818</v>
+        <v>34.8452546286282</v>
       </c>
       <c r="N15" t="n">
-        <v>172.3215253904087</v>
+        <v>23.94222807169548</v>
       </c>
       <c r="O15" t="n">
-        <v>40.13840422090708</v>
+        <v>91.5916525883562</v>
       </c>
       <c r="P15" t="n">
         <v>196.4606895345224</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.11017483692342</v>
+        <v>221.4894721556367</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9088,19 +9088,19 @@
         <v>73.8242672828444</v>
       </c>
       <c r="L16" t="n">
-        <v>211.2171120040207</v>
+        <v>127.6434162293604</v>
       </c>
       <c r="M16" t="n">
-        <v>219.4320959246182</v>
+        <v>219.4320959246181</v>
       </c>
       <c r="N16" t="n">
-        <v>211.2938921153078</v>
+        <v>211.2938921153079</v>
       </c>
       <c r="O16" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P16" t="n">
-        <v>91.93483653359304</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q16" t="n">
         <v>84.9458458910769</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>96.6154162928668</v>
+        <v>96.61541629286683</v>
       </c>
       <c r="K17" t="n">
-        <v>251.539300697056</v>
+        <v>103.1600033783428</v>
       </c>
       <c r="L17" t="n">
-        <v>246.072866662677</v>
+        <v>246.0728666626771</v>
       </c>
       <c r="M17" t="n">
         <v>231.0908855137751</v>
       </c>
       <c r="N17" t="n">
-        <v>222.6475371996902</v>
+        <v>228.6426603236787</v>
       </c>
       <c r="O17" t="n">
-        <v>86.73476088008282</v>
+        <v>229.1189350748076</v>
       </c>
       <c r="P17" t="n">
         <v>102.3413270829522</v>
@@ -9243,19 +9243,19 @@
         <v>72.98742011525583</v>
       </c>
       <c r="K18" t="n">
-        <v>202.989083175314</v>
+        <v>202.9890831753141</v>
       </c>
       <c r="L18" t="n">
-        <v>191.8528394942622</v>
+        <v>43.47354217554894</v>
       </c>
       <c r="M18" t="n">
-        <v>34.84525462862818</v>
+        <v>34.8452546286282</v>
       </c>
       <c r="N18" t="n">
-        <v>23.94222807169547</v>
+        <v>172.3215253904087</v>
       </c>
       <c r="O18" t="n">
-        <v>188.5177015396202</v>
+        <v>188.5177015396203</v>
       </c>
       <c r="P18" t="n">
         <v>196.4606895345224</v>
@@ -9322,22 +9322,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>86.12511322317485</v>
+        <v>73.8242672828444</v>
       </c>
       <c r="L19" t="n">
-        <v>211.2171120040207</v>
+        <v>127.6434162293604</v>
       </c>
       <c r="M19" t="n">
         <v>219.4320959246181</v>
       </c>
       <c r="N19" t="n">
-        <v>211.2938921153078</v>
+        <v>211.2938921153079</v>
       </c>
       <c r="O19" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P19" t="n">
-        <v>79.63399059326262</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q19" t="n">
         <v>84.9458458910769</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>96.6154162928668</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>103.1600033783428</v>
       </c>
       <c r="L20" t="n">
-        <v>97.69356934396383</v>
+        <v>97.69356934396384</v>
       </c>
       <c r="M20" t="n">
-        <v>231.0908855137751</v>
+        <v>82.71158819506188</v>
       </c>
       <c r="N20" t="n">
-        <v>80.26336300496544</v>
+        <v>99.43735376886113</v>
       </c>
       <c r="O20" t="n">
-        <v>229.1189350748076</v>
+        <v>235.1140581987961</v>
       </c>
       <c r="P20" t="n">
         <v>250.7206244016654</v>
       </c>
       <c r="Q20" t="n">
-        <v>264.7690855961332</v>
+        <v>264.7690855961333</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,28 +9477,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525583</v>
       </c>
       <c r="K21" t="n">
-        <v>112.0581573480384</v>
+        <v>60.60490898058926</v>
       </c>
       <c r="L21" t="n">
-        <v>43.47354217554893</v>
+        <v>43.47354217554894</v>
       </c>
       <c r="M21" t="n">
-        <v>183.2245519473414</v>
+        <v>34.8452546286282</v>
       </c>
       <c r="N21" t="n">
-        <v>23.94222807169547</v>
+        <v>172.3215253904087</v>
       </c>
       <c r="O21" t="n">
-        <v>188.5177015396202</v>
+        <v>188.5177015396203</v>
       </c>
       <c r="P21" t="n">
-        <v>48.08139221580916</v>
+        <v>196.4606895345224</v>
       </c>
       <c r="Q21" t="n">
-        <v>221.4894721556366</v>
+        <v>215.4943490316482</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9559,22 +9559,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>73.8242672828444</v>
+        <v>86.12511322317488</v>
       </c>
       <c r="L22" t="n">
         <v>211.2171120040207</v>
       </c>
       <c r="M22" t="n">
-        <v>219.4320959246182</v>
+        <v>219.4320959246181</v>
       </c>
       <c r="N22" t="n">
-        <v>211.2938921153078</v>
+        <v>211.2938921153079</v>
       </c>
       <c r="O22" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P22" t="n">
-        <v>91.93483653359304</v>
+        <v>79.63399059326264</v>
       </c>
       <c r="Q22" t="n">
         <v>84.9458458910769</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>96.61541629286683</v>
       </c>
       <c r="K23" t="n">
-        <v>251.539300697056</v>
+        <v>251.5393006970556</v>
       </c>
       <c r="L23" t="n">
-        <v>246.072866662677</v>
+        <v>246.0728666626767</v>
       </c>
       <c r="M23" t="n">
-        <v>101.8855789589575</v>
+        <v>231.0908855137747</v>
       </c>
       <c r="N23" t="n">
-        <v>228.6426603236787</v>
+        <v>222.6475371996899</v>
       </c>
       <c r="O23" t="n">
-        <v>86.73476088008282</v>
+        <v>86.73476088008283</v>
       </c>
       <c r="P23" t="n">
         <v>102.3413270829522</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525583</v>
       </c>
       <c r="K24" t="n">
-        <v>208.9842062993025</v>
+        <v>60.60490898058926</v>
       </c>
       <c r="L24" t="n">
-        <v>191.8528394942621</v>
+        <v>191.8528394942618</v>
       </c>
       <c r="M24" t="n">
-        <v>34.84525462862818</v>
+        <v>34.8452546286282</v>
       </c>
       <c r="N24" t="n">
-        <v>23.94222807169547</v>
+        <v>166.3264022664198</v>
       </c>
       <c r="O24" t="n">
-        <v>188.5177015396203</v>
+        <v>40.13840422090709</v>
       </c>
       <c r="P24" t="n">
-        <v>48.08139221580916</v>
+        <v>196.460689534522</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.5634232043726</v>
+        <v>221.4894721556363</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9796,22 +9796,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>73.8242672828444</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L25" t="n">
-        <v>211.2171120040207</v>
+        <v>69.92574568706458</v>
       </c>
       <c r="M25" t="n">
-        <v>219.4320959246182</v>
+        <v>219.4320959246178</v>
       </c>
       <c r="N25" t="n">
-        <v>211.2938921153078</v>
+        <v>211.2938921153075</v>
       </c>
       <c r="O25" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P25" t="n">
-        <v>91.93483653359304</v>
+        <v>168.2835738853447</v>
       </c>
       <c r="Q25" t="n">
         <v>84.9458458910769</v>
@@ -9951,13 +9951,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>72.98742011525583</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>116.3321316740964</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>435.5811582441265</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9966,13 +9966,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>40.13840422090709</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.11017483692342</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10431,10 +10431,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>43.47354217554894</v>
       </c>
       <c r="M33" t="n">
-        <v>452.9428884018974</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10443,7 +10443,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>48.08139221580916</v>
+        <v>334.2266044616545</v>
       </c>
       <c r="Q33" t="n">
         <v>273.1004740566038</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>216.7749717730129</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.9588599071925</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,19 +10662,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>72.98742011525583</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>54.62947323256105</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>104.751185157408</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>216.7749717730129</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>539.9089509649024</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10902,16 +10902,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>60.60490898058925</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>43.47354217554894</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>387.9510842931708</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>193.3254792863402</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11072,10 +11072,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>491.9896076908857</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229274</v>
+        <v>415.2876926722452</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11139,7 +11139,7 @@
         <v>72.98742011525583</v>
       </c>
       <c r="K42" t="n">
-        <v>60.60490898058925</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11154,10 +11154,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>48.08139221580917</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.8373975304306</v>
+        <v>211.557705410777</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>216.7749717730129</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>272.9588599071925</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>72.98742011525583</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>60.60490898058925</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11391,10 +11391,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>95.5979969623869</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.8373975304306</v>
+        <v>73.11017483692342</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175.1936450202583</v>
+        <v>160.6932524342245</v>
       </c>
       <c r="C11" t="n">
-        <v>14.82566465922685</v>
+        <v>14.8256646592269</v>
       </c>
       <c r="D11" t="n">
-        <v>154.186266022468</v>
+        <v>154.1862660224681</v>
       </c>
       <c r="E11" t="n">
         <v>175.9284035923736</v>
       </c>
       <c r="F11" t="n">
-        <v>64.40773460202817</v>
+        <v>195.1002196803508</v>
       </c>
       <c r="G11" t="n">
-        <v>48.05937288460603</v>
+        <v>48.05937288460609</v>
       </c>
       <c r="H11" t="n">
-        <v>108.4919291199561</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.60208464704589</v>
+        <v>4.602084647045947</v>
       </c>
       <c r="U11" t="n">
-        <v>37.37943843060896</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>118.7000222604374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>144.0001217383943</v>
+        <v>144.0001217383944</v>
       </c>
       <c r="X11" t="n">
-        <v>14.92108265242774</v>
+        <v>163.300379971141</v>
       </c>
       <c r="Y11" t="n">
-        <v>174.6969777673397</v>
+        <v>174.6969777673398</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.81434770154505</v>
+        <v>175.1936450202584</v>
       </c>
       <c r="C14" t="n">
-        <v>163.20496197794</v>
+        <v>163.2049619779401</v>
       </c>
       <c r="D14" t="n">
-        <v>154.186266022468</v>
+        <v>154.1862660224681</v>
       </c>
       <c r="E14" t="n">
-        <v>27.5491062736603</v>
+        <v>42.72798874590308</v>
       </c>
       <c r="F14" t="n">
-        <v>195.1002196803507</v>
+        <v>195.1002196803508</v>
       </c>
       <c r="G14" t="n">
-        <v>196.4386702033192</v>
+        <v>48.05937288460609</v>
       </c>
       <c r="H14" t="n">
-        <v>108.491929119956</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.602084647045947</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>29.98906025976959</v>
+        <v>118.7000222604375</v>
       </c>
       <c r="W14" t="n">
-        <v>144.0001217383943</v>
+        <v>144.0001217383944</v>
       </c>
       <c r="X14" t="n">
-        <v>163.3003799711409</v>
+        <v>163.300379971141</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.31768044862645</v>
+        <v>26.31768044862656</v>
       </c>
     </row>
     <row r="15">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26323,25 +26323,25 @@
         <v>150589.5295769475</v>
       </c>
       <c r="F2" t="n">
-        <v>150589.5295769475</v>
+        <v>150589.5295769474</v>
       </c>
       <c r="G2" t="n">
         <v>172715.4136111908</v>
       </c>
       <c r="H2" t="n">
-        <v>172715.4136111909</v>
+        <v>172715.4136111908</v>
       </c>
       <c r="I2" t="n">
         <v>172715.4136111909</v>
       </c>
       <c r="J2" t="n">
+        <v>172715.4136111913</v>
+      </c>
+      <c r="K2" t="n">
         <v>172715.4136111912</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>172715.4136111913</v>
-      </c>
-      <c r="L2" t="n">
-        <v>172715.4136111912</v>
       </c>
       <c r="M2" t="n">
         <v>172715.4136111908</v>
@@ -26375,34 +26375,34 @@
         <v>335102.5293101488</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86793.5432959648</v>
+        <v>86793.5432959649</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183234.0671005397</v>
+        <v>183234.0671005398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86793.54329596476</v>
+        <v>86793.54329596493</v>
       </c>
       <c r="M3" t="n">
-        <v>30710.95344183802</v>
+        <v>30710.95344183796</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1021.367241920257</v>
+        <v>1021.367241920143</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>433368.1494884496</v>
       </c>
       <c r="E4" t="n">
-        <v>327629.7304511557</v>
+        <v>327629.7304511556</v>
       </c>
       <c r="F4" t="n">
-        <v>327629.7304511557</v>
+        <v>327629.7304511556</v>
       </c>
       <c r="G4" t="n">
         <v>383757.4021159814</v>
@@ -26439,7 +26439,7 @@
         <v>383757.4021159814</v>
       </c>
       <c r="J4" t="n">
-        <v>382503.2390267601</v>
+        <v>382503.2390267602</v>
       </c>
       <c r="K4" t="n">
         <v>382503.2390267601</v>
@@ -26479,16 +26479,16 @@
         <v>30314.23051159308</v>
       </c>
       <c r="F5" t="n">
-        <v>30314.23051159309</v>
+        <v>30314.23051159308</v>
       </c>
       <c r="G5" t="n">
         <v>39435.03850077867</v>
       </c>
       <c r="H5" t="n">
-        <v>39435.03850077868</v>
+        <v>39435.03850077867</v>
       </c>
       <c r="I5" t="n">
-        <v>39435.03850077868</v>
+        <v>39435.03850077865</v>
       </c>
       <c r="J5" t="n">
         <v>63817.1541115959</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294673.5073993061</v>
+        <v>-294677.8759717733</v>
       </c>
       <c r="C6" t="n">
-        <v>-294673.5073993061</v>
+        <v>-294677.8759717733</v>
       </c>
       <c r="D6" t="n">
-        <v>-294673.5073993062</v>
+        <v>-294677.8759717733</v>
       </c>
       <c r="E6" t="n">
-        <v>-542456.9606959501</v>
+        <v>-542702.803851886</v>
       </c>
       <c r="F6" t="n">
-        <v>-207354.4313858013</v>
+        <v>-207600.2745417373</v>
       </c>
       <c r="G6" t="n">
-        <v>-337270.570301534</v>
+        <v>-337270.5703015342</v>
       </c>
       <c r="H6" t="n">
         <v>-250477.0270055693</v>
       </c>
       <c r="I6" t="n">
-        <v>-250477.0270055692</v>
+        <v>-250477.0270055691</v>
       </c>
       <c r="J6" t="n">
-        <v>-456839.0466277045</v>
+        <v>-456839.0466277046</v>
       </c>
       <c r="K6" t="n">
-        <v>-273604.9795271647</v>
+        <v>-273604.9795271648</v>
       </c>
       <c r="L6" t="n">
-        <v>-360398.5228231295</v>
+        <v>-360398.5228231296</v>
       </c>
       <c r="M6" t="n">
-        <v>-297740.1226983739</v>
+        <v>-297740.1226983737</v>
       </c>
       <c r="N6" t="n">
-        <v>-267029.1692565357</v>
+        <v>-267029.1692565358</v>
       </c>
       <c r="O6" t="n">
-        <v>-268050.5364984561</v>
+        <v>-268050.536498456</v>
       </c>
       <c r="P6" t="n">
         <v>-267029.1692565358</v>
@@ -26695,25 +26695,25 @@
         <v>214.9094591025806</v>
       </c>
       <c r="F2" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="G2" t="n">
         <v>323.4013882225367</v>
       </c>
       <c r="H2" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="I2" t="n">
         <v>323.4013882225368</v>
       </c>
       <c r="J2" t="n">
+        <v>109.7686381723563</v>
+      </c>
+      <c r="K2" t="n">
+        <v>109.7686381723563</v>
+      </c>
+      <c r="L2" t="n">
         <v>109.7686381723564</v>
-      </c>
-      <c r="K2" t="n">
-        <v>109.7686381723564</v>
-      </c>
-      <c r="L2" t="n">
-        <v>109.7686381723563</v>
       </c>
       <c r="M2" t="n">
         <v>148.1573299746538</v>
@@ -26808,10 +26808,10 @@
         <v>148.3792973187132</v>
       </c>
       <c r="I4" t="n">
-        <v>148.3792973187132</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="J4" t="n">
-        <v>844.7938906540066</v>
+        <v>844.7938906540068</v>
       </c>
       <c r="K4" t="n">
         <v>844.7938906540066</v>
@@ -26917,34 +26917,34 @@
         <v>214.9094591025806</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.491929119956</v>
+        <v>108.4919291199561</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.276709052400292</v>
+        <v>1.276709052400179</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.491929119956</v>
+        <v>108.4919291199562</v>
       </c>
       <c r="M2" t="n">
-        <v>38.38869180229753</v>
+        <v>38.38869180229744</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.276709052400321</v>
+        <v>1.276709052400179</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>696.4145933352934</v>
+        <v>696.4145933352939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>214.9094591025806</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.491929119956</v>
+        <v>108.4919291199561</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.276709052400292</v>
+        <v>1.276709052400179</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>52.36770674105863</v>
+        <v>52.36770674105864</v>
       </c>
       <c r="S11" t="n">
         <v>171.8022846955789</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.74098649571546</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S12" t="n">
         <v>145.3600385256214</v>
@@ -28223,19 +28223,19 @@
         <v>37.13616306826421</v>
       </c>
       <c r="U12" t="n">
-        <v>164.4450483155331</v>
+        <v>67.9096093068047</v>
       </c>
       <c r="V12" t="n">
-        <v>214.9094591025806</v>
+        <v>191.2839834302397</v>
       </c>
       <c r="W12" t="n">
-        <v>214.9094591025806</v>
+        <v>90.52341276030984</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.21681576820373</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -28248,7 +28248,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>19.54051252422329</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
@@ -28263,7 +28263,7 @@
         <v>166.9637365489679</v>
       </c>
       <c r="H13" t="n">
-        <v>155.4066944437036</v>
+        <v>155.253908503219</v>
       </c>
       <c r="I13" t="n">
         <v>134.7371713495762</v>
@@ -28296,10 +28296,10 @@
         <v>136.0296090620145</v>
       </c>
       <c r="S13" t="n">
-        <v>73.18840950917311</v>
+        <v>58.54351690452876</v>
       </c>
       <c r="T13" t="n">
-        <v>214.9094591025806</v>
+        <v>81.32784032899663</v>
       </c>
       <c r="U13" t="n">
         <v>135.9244862736128</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="C14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="D14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="E14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="F14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="G14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="H14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="I14" t="n">
         <v>148.1573299746538</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>52.36770674105863</v>
+        <v>52.36770674105864</v>
       </c>
       <c r="S14" t="n">
         <v>171.8022846955789</v>
       </c>
       <c r="T14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="U14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="V14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="W14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="X14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="Y14" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>95.86480218241283</v>
       </c>
       <c r="I15" t="n">
-        <v>56.74098649571546</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>145.3600385256214</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>185.5154603869774</v>
+        <v>37.13616306826421</v>
       </c>
       <c r="U15" t="n">
-        <v>67.9096093068047</v>
+        <v>213.9402846587418</v>
       </c>
       <c r="V15" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="W15" t="n">
-        <v>158.8391094331807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="X15" t="n">
         <v>47.55852092227013</v>
       </c>
       <c r="Y15" t="n">
-        <v>42.21681576820373</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.719814997536</v>
+        <v>33.34051767882281</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
@@ -28530,28 +28530,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>136.0296090620145</v>
       </c>
       <c r="S16" t="n">
-        <v>143.4173114761988</v>
+        <v>129.5911675377339</v>
       </c>
       <c r="T16" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="U16" t="n">
-        <v>214.9094591025807</v>
+        <v>135.9244862736128</v>
       </c>
       <c r="V16" t="n">
-        <v>109.7486540784484</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="W16" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="X16" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.9094591025807</v>
+        <v>214.9094591025806</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.36770674105863</v>
+        <v>52.36770674105864</v>
       </c>
       <c r="S17" t="n">
         <v>171.8022846955789</v>
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.44595103473506</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>11.70733871274163</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3.936198086351823</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.4266772089115</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.3600385256214</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.5154603869774</v>
+        <v>80.30134704545139</v>
       </c>
       <c r="U18" t="n">
         <v>216.2889066255179</v>
@@ -28709,7 +28709,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.21681576820373</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.34051767882281</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28767,16 +28767,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>136.0296090620145</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>206.922814223242</v>
+        <v>58.54351690452876</v>
       </c>
       <c r="T19" t="n">
-        <v>229.7071376477099</v>
+        <v>102.4748481393258</v>
       </c>
       <c r="U19" t="n">
-        <v>169.4211823406407</v>
+        <v>135.9244862736128</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -28785,10 +28785,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>80.56064214486477</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.43550990093246</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="C20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="D20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="E20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="F20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="G20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="H20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="I20" t="n">
         <v>148.1573299746538</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>52.36770674105863</v>
+        <v>52.36770674105864</v>
       </c>
       <c r="S20" t="n">
         <v>171.8022846955789</v>
@@ -28858,16 +28858,16 @@
         <v>252.2888975331896</v>
       </c>
       <c r="V20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="W20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="X20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
       <c r="Y20" t="n">
-        <v>323.4013882225368</v>
+        <v>323.4013882225367</v>
       </c>
     </row>
     <row r="21">
@@ -28880,25 +28880,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>57.35208604572001</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.122959624192</v>
       </c>
       <c r="H21" t="n">
         <v>95.86480218241283</v>
       </c>
       <c r="I21" t="n">
-        <v>56.74098649571546</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.4266772089115</v>
+        <v>39.42667720891151</v>
       </c>
       <c r="S21" t="n">
         <v>145.3600385256214</v>
@@ -28934,19 +28934,19 @@
         <v>185.5154603869774</v>
       </c>
       <c r="U21" t="n">
-        <v>67.9096093068047</v>
+        <v>216.2889066255179</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>235.3331846248926</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>47.55852092227013</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.21681576820373</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>91.62020412113671</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>19.54051252422329</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28974,13 +28974,13 @@
         <v>18.58443923025465</v>
       </c>
       <c r="H22" t="n">
-        <v>7.027397124990358</v>
+        <v>155.4066944437036</v>
       </c>
       <c r="I22" t="n">
         <v>134.7371713495762</v>
       </c>
       <c r="J22" t="n">
-        <v>40.59287420192322</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.80988382663727</v>
       </c>
       <c r="R22" t="n">
         <v>136.0296090620145</v>
@@ -29016,7 +29016,7 @@
         <v>284.303783592326</v>
       </c>
       <c r="V22" t="n">
-        <v>143.2453501454763</v>
+        <v>109.7486540784484</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
@@ -29025,7 +29025,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.43550990093246</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.36770674105863</v>
+        <v>52.36770674105864</v>
       </c>
       <c r="S23" t="n">
         <v>171.8022846955789</v>
@@ -29092,7 +29092,7 @@
         <v>219.5115437496265</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2888975331886</v>
+        <v>252.2888975331896</v>
       </c>
       <c r="V23" t="n">
         <v>323.4013882225368</v>
@@ -29123,19 +29123,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.122959624192</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.86480218241283</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.74098649571546</v>
+        <v>22.22963839009294</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.4266772089115</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>145.3600385256214</v>
@@ -29171,16 +29171,16 @@
         <v>185.5154603869774</v>
       </c>
       <c r="U24" t="n">
-        <v>67.9096093068047</v>
+        <v>216.2889066255179</v>
       </c>
       <c r="V24" t="n">
-        <v>77.73236900743615</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>108.2102250007006</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>47.55852092227013</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.34051767882281</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29238,28 +29238,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.80988382663727</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>136.0296090620145</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.922814223242</v>
+        <v>58.54351690452913</v>
       </c>
       <c r="T25" t="n">
-        <v>99.01465256938732</v>
+        <v>81.32784032899701</v>
       </c>
       <c r="U25" t="n">
-        <v>135.9244862736128</v>
+        <v>284.303783592326</v>
       </c>
       <c r="V25" t="n">
-        <v>109.7486540784484</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>101.7076499551946</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="C26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="D26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="E26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="F26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="G26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="H26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="I26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="L26" t="n">
-        <v>109.7686381723564</v>
+        <v>87.9959540794589</v>
       </c>
       <c r="M26" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="Q26" t="n">
-        <v>87.99595407945796</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="R26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="S26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="T26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="U26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="V26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="W26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="X26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="Y26" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="C28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="D28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="E28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="F28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="G28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="H28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="I28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="J28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>15.05093859354805</v>
       </c>
       <c r="L28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="M28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="N28" t="n">
-        <v>15.05093859354659</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="P28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="Q28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="R28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="S28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="T28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="U28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="V28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="W28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="X28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="Y28" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="C29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="D29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="E29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="F29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="G29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="H29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="I29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29539,46 +29539,46 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>109.7686381723564</v>
+        <v>87.99595407945861</v>
       </c>
       <c r="N29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="O29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="Q29" t="n">
-        <v>87.99595407945796</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="R29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="S29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="T29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="U29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="V29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="W29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="X29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="Y29" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="C31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="D31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="E31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="F31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="G31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="H31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="I31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="J31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="L31" t="n">
-        <v>109.7686381723564</v>
+        <v>15.05093859354832</v>
       </c>
       <c r="M31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="N31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="O31" t="n">
-        <v>15.05093859354716</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="P31" t="n">
-        <v>109.7686381723564</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="R31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="S31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="T31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="U31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="V31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="W31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="X31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
       <c r="Y31" t="n">
-        <v>109.7686381723564</v>
+        <v>109.7686381723563</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="J32" t="n">
-        <v>109.7686381723563</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="M32" t="n">
-        <v>109.7686381723563</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.7686381723563</v>
+        <v>87.99595407945873</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="Q32" t="n">
-        <v>87.99595407945887</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="R32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="S32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="J34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="K34" t="n">
-        <v>15.05093859354851</v>
+        <v>15.05093859354702</v>
       </c>
       <c r="L34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="M34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="N34" t="n">
-        <v>109.7686381723563</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="R34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.7686381723563</v>
+        <v>109.7686381723564</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.36770674105863</v>
+        <v>52.36770674105864</v>
       </c>
       <c r="S35" t="n">
         <v>148.1573299746538</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.31857359562297</v>
+        <v>20.31857359562274</v>
       </c>
       <c r="R37" t="n">
         <v>148.1573299746538</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.36770674105863</v>
+        <v>52.36770674105864</v>
       </c>
       <c r="S38" t="n">
         <v>148.1573299746538</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.44629450826238</v>
+        <v>20.31857359562274</v>
       </c>
       <c r="R40" t="n">
-        <v>136.0296090620145</v>
+        <v>148.1573299746538</v>
       </c>
       <c r="S40" t="n">
         <v>148.1573299746538</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.36770674105863</v>
+        <v>52.36770674105864</v>
       </c>
       <c r="S41" t="n">
         <v>148.1573299746538</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.31857359562251</v>
+        <v>20.31857359562274</v>
       </c>
       <c r="R43" t="n">
         <v>148.1573299746538</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.36770674105863</v>
+        <v>52.36770674105864</v>
       </c>
       <c r="S44" t="n">
         <v>148.1573299746538</v>
@@ -30876,7 +30876,7 @@
         <v>134.7371713495762</v>
       </c>
       <c r="J46" t="n">
-        <v>57.22928488354782</v>
+        <v>40.59287420192322</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.80988382663727</v>
+        <v>20.31857359562274</v>
       </c>
       <c r="R46" t="n">
-        <v>136.0296090620145</v>
+        <v>148.1573299746538</v>
       </c>
       <c r="S46" t="n">
         <v>148.1573299746538</v>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H11" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I11" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J11" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K11" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L11" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M11" t="n">
         <v>104.4447263020972</v>
@@ -31777,22 +31777,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P11" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R11" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S11" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T11" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H12" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I12" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J12" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K12" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L12" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M12" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N12" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O12" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P12" t="n">
         <v>60.77281380833416</v>
@@ -31865,10 +31865,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S12" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T12" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U12" t="n">
         <v>0.0209378521550143</v>
@@ -31911,10 +31911,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H13" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I13" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J13" t="n">
         <v>18.86379199804578</v>
@@ -31923,28 +31923,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L13" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M13" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N13" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O13" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P13" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R13" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S13" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T13" t="n">
         <v>1.1400260047681</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H14" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I14" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J14" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K14" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L14" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M14" t="n">
         <v>104.4447263020972</v>
@@ -32014,22 +32014,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P14" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R14" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S14" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T14" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H15" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I15" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J15" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K15" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L15" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M15" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N15" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O15" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P15" t="n">
         <v>60.77281380833416</v>
@@ -32102,10 +32102,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S15" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T15" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U15" t="n">
         <v>0.0209378521550143</v>
@@ -32148,10 +32148,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H16" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I16" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J16" t="n">
         <v>18.86379199804578</v>
@@ -32160,28 +32160,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L16" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M16" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N16" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O16" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P16" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R16" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S16" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T16" t="n">
         <v>1.1400260047681</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H17" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I17" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J17" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K17" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L17" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M17" t="n">
         <v>104.4447263020972</v>
@@ -32251,22 +32251,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P17" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R17" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S17" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T17" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H18" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I18" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J18" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K18" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L18" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M18" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N18" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O18" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P18" t="n">
         <v>60.77281380833416</v>
@@ -32339,10 +32339,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S18" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T18" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U18" t="n">
         <v>0.0209378521550143</v>
@@ -32385,10 +32385,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H19" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I19" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J19" t="n">
         <v>18.86379199804578</v>
@@ -32397,28 +32397,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L19" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M19" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N19" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O19" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P19" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R19" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S19" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T19" t="n">
         <v>1.1400260047681</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H20" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I20" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J20" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K20" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L20" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M20" t="n">
         <v>104.4447263020972</v>
@@ -32488,22 +32488,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P20" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q20" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R20" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S20" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T20" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H21" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I21" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J21" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K21" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L21" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M21" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N21" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O21" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P21" t="n">
         <v>60.77281380833416</v>
@@ -32576,10 +32576,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S21" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T21" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U21" t="n">
         <v>0.0209378521550143</v>
@@ -32622,10 +32622,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H22" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I22" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J22" t="n">
         <v>18.86379199804578</v>
@@ -32634,28 +32634,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L22" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M22" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N22" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O22" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P22" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R22" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S22" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T22" t="n">
         <v>1.1400260047681</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H23" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I23" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J23" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K23" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L23" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M23" t="n">
         <v>104.4447263020972</v>
@@ -32725,22 +32725,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P23" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R23" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S23" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T23" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H24" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I24" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J24" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K24" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L24" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M24" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N24" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O24" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P24" t="n">
         <v>60.77281380833416</v>
@@ -32813,10 +32813,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S24" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T24" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U24" t="n">
         <v>0.0209378521550143</v>
@@ -32859,10 +32859,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H25" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I25" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J25" t="n">
         <v>18.86379199804578</v>
@@ -32871,28 +32871,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L25" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M25" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N25" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O25" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P25" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R25" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S25" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T25" t="n">
         <v>1.1400260047681</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H26" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I26" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J26" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K26" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L26" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M26" t="n">
         <v>104.4447263020972</v>
@@ -32962,22 +32962,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P26" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R26" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S26" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T26" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H27" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I27" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J27" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K27" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L27" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M27" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N27" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O27" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P27" t="n">
         <v>60.77281380833416</v>
@@ -33050,10 +33050,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S27" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T27" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U27" t="n">
         <v>0.0209378521550143</v>
@@ -33096,10 +33096,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H28" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I28" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J28" t="n">
         <v>18.86379199804578</v>
@@ -33108,28 +33108,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L28" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M28" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N28" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O28" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P28" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R28" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S28" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T28" t="n">
         <v>1.1400260047681</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H29" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I29" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J29" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K29" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L29" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M29" t="n">
         <v>104.4447263020972</v>
@@ -33199,22 +33199,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P29" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R29" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S29" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T29" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H30" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I30" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J30" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K30" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L30" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M30" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N30" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O30" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P30" t="n">
         <v>60.77281380833416</v>
@@ -33287,10 +33287,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S30" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T30" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U30" t="n">
         <v>0.0209378521550143</v>
@@ -33333,10 +33333,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H31" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I31" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J31" t="n">
         <v>18.86379199804578</v>
@@ -33345,28 +33345,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L31" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M31" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N31" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O31" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P31" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R31" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S31" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T31" t="n">
         <v>1.1400260047681</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H32" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I32" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J32" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K32" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L32" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M32" t="n">
         <v>104.4447263020972</v>
@@ -33436,22 +33436,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P32" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R32" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S32" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T32" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H33" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I33" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J33" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K33" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L33" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M33" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N33" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O33" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P33" t="n">
         <v>60.77281380833416</v>
@@ -33524,10 +33524,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S33" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T33" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U33" t="n">
         <v>0.0209378521550143</v>
@@ -33570,10 +33570,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H34" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I34" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J34" t="n">
         <v>18.86379199804578</v>
@@ -33582,28 +33582,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L34" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M34" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N34" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O34" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P34" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R34" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S34" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T34" t="n">
         <v>1.1400260047681</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H35" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I35" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J35" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K35" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L35" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M35" t="n">
         <v>104.4447263020972</v>
@@ -33673,22 +33673,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P35" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R35" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S35" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T35" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H36" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I36" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J36" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K36" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L36" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M36" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N36" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O36" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P36" t="n">
         <v>60.77281380833416</v>
@@ -33761,10 +33761,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S36" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T36" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U36" t="n">
         <v>0.0209378521550143</v>
@@ -33807,10 +33807,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H37" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I37" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J37" t="n">
         <v>18.86379199804578</v>
@@ -33819,28 +33819,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L37" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M37" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N37" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O37" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P37" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R37" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S37" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T37" t="n">
         <v>1.1400260047681</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H38" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I38" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J38" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K38" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L38" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M38" t="n">
         <v>104.4447263020972</v>
@@ -33910,22 +33910,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P38" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R38" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S38" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T38" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H39" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I39" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J39" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K39" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L39" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M39" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N39" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O39" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P39" t="n">
         <v>60.77281380833416</v>
@@ -33998,10 +33998,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S39" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T39" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U39" t="n">
         <v>0.0209378521550143</v>
@@ -34044,10 +34044,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H40" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I40" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J40" t="n">
         <v>18.86379199804578</v>
@@ -34056,28 +34056,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L40" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M40" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N40" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O40" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P40" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R40" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S40" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T40" t="n">
         <v>1.1400260047681</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H41" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I41" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J41" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K41" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L41" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M41" t="n">
         <v>104.4447263020972</v>
@@ -34147,22 +34147,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P41" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R41" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S41" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T41" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H42" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I42" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J42" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K42" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L42" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M42" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N42" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O42" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P42" t="n">
         <v>60.77281380833416</v>
@@ -34235,10 +34235,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S42" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T42" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U42" t="n">
         <v>0.0209378521550143</v>
@@ -34281,10 +34281,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H43" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I43" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J43" t="n">
         <v>18.86379199804578</v>
@@ -34293,28 +34293,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L43" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M43" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N43" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O43" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P43" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R43" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S43" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T43" t="n">
         <v>1.1400260047681</v>
@@ -34357,22 +34357,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.594817374454007</v>
+        <v>0.5948173744540068</v>
       </c>
       <c r="H44" t="n">
-        <v>6.091673436127101</v>
+        <v>6.091673436127099</v>
       </c>
       <c r="I44" t="n">
-        <v>22.93169682863813</v>
+        <v>22.93169682863812</v>
       </c>
       <c r="J44" t="n">
-        <v>50.48438113506582</v>
+        <v>50.48438113506581</v>
       </c>
       <c r="K44" t="n">
-        <v>75.66300059570395</v>
+        <v>75.66300059570393</v>
       </c>
       <c r="L44" t="n">
-        <v>93.86664281915078</v>
+        <v>93.86664281915077</v>
       </c>
       <c r="M44" t="n">
         <v>104.4447263020972</v>
@@ -34384,22 +34384,22 @@
         <v>100.2200359000376</v>
       </c>
       <c r="P44" t="n">
-        <v>85.53548196820434</v>
+        <v>85.53548196820432</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.2335847455702</v>
+        <v>64.23358474557018</v>
       </c>
       <c r="R44" t="n">
-        <v>37.36419689804655</v>
+        <v>37.36419689804654</v>
       </c>
       <c r="S44" t="n">
-        <v>13.5544009203707</v>
+        <v>13.55440092037069</v>
       </c>
       <c r="T44" t="n">
-        <v>2.603813056672417</v>
+        <v>2.603813056672416</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04758538995632055</v>
+        <v>0.04758538995632054</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3182553527562173</v>
+        <v>0.3182553527562172</v>
       </c>
       <c r="H45" t="n">
-        <v>3.073676696356099</v>
+        <v>3.073676696356098</v>
       </c>
       <c r="I45" t="n">
         <v>10.95747596112415</v>
       </c>
       <c r="J45" t="n">
-        <v>30.06815155141087</v>
+        <v>30.06815155141086</v>
       </c>
       <c r="K45" t="n">
-        <v>51.39126018607742</v>
+        <v>51.39126018607741</v>
       </c>
       <c r="L45" t="n">
-        <v>69.10189139559886</v>
+        <v>69.10189139559884</v>
       </c>
       <c r="M45" t="n">
-        <v>80.63864793301171</v>
+        <v>80.6386479330117</v>
       </c>
       <c r="N45" t="n">
-        <v>82.77291299601285</v>
+        <v>82.77291299601283</v>
       </c>
       <c r="O45" t="n">
-        <v>75.72104439020403</v>
+        <v>75.72104439020401</v>
       </c>
       <c r="P45" t="n">
         <v>60.77281380833416</v>
@@ -34472,10 +34472,10 @@
         <v>19.75974900709216</v>
       </c>
       <c r="S45" t="n">
-        <v>5.911453591765699</v>
+        <v>5.911453591765698</v>
       </c>
       <c r="T45" t="n">
-        <v>1.282792408697209</v>
+        <v>1.282792408697208</v>
       </c>
       <c r="U45" t="n">
         <v>0.0209378521550143</v>
@@ -34518,10 +34518,10 @@
         <v>0.2668145968606193</v>
       </c>
       <c r="H46" t="n">
-        <v>2.372224324815326</v>
+        <v>2.372224324815325</v>
       </c>
       <c r="I46" t="n">
-        <v>8.023842603772081</v>
+        <v>8.02384260377208</v>
       </c>
       <c r="J46" t="n">
         <v>18.86379199804578</v>
@@ -34530,28 +34530,28 @@
         <v>30.99900498071558</v>
       </c>
       <c r="L46" t="n">
-        <v>39.66805379144153</v>
+        <v>39.66805379144152</v>
       </c>
       <c r="M46" t="n">
-        <v>41.82440085152416</v>
+        <v>41.82440085152415</v>
       </c>
       <c r="N46" t="n">
-        <v>40.82991008140734</v>
+        <v>40.82991008140733</v>
       </c>
       <c r="O46" t="n">
-        <v>37.71303047262646</v>
+        <v>37.71303047262645</v>
       </c>
       <c r="P46" t="n">
-        <v>32.2700126966698</v>
+        <v>32.27001269666979</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.34208410621059</v>
+        <v>22.34208410621058</v>
       </c>
       <c r="R46" t="n">
         <v>11.99695450975111</v>
       </c>
       <c r="S46" t="n">
-        <v>4.649850747107337</v>
+        <v>4.649850747107336</v>
       </c>
       <c r="T46" t="n">
         <v>1.1400260047681</v>
@@ -35489,25 +35489,25 @@
         <v>90.93092582727566</v>
       </c>
       <c r="K12" t="n">
-        <v>51.45324836744911</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="M12" t="n">
+        <v>51.45324836744914</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>148.3792973187132</v>
       </c>
-      <c r="N12" t="n">
-        <v>148.3792973187132</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>64.94262896520388</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>88.64958329208274</v>
+        <v>141.2913663169562</v>
       </c>
       <c r="M13" t="n">
         <v>148.3792973187132</v>
       </c>
       <c r="N13" t="n">
-        <v>148.3792973187132</v>
+        <v>64.80560154405292</v>
       </c>
       <c r="O13" t="n">
         <v>137.1712592561514</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>95.87454171499078</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="L14" t="n">
-        <v>142.3841741947248</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>148.3792973187132</v>
@@ -35659,7 +35659,7 @@
         <v>148.3792973187132</v>
       </c>
       <c r="O14" t="n">
-        <v>148.3792973187132</v>
+        <v>142.3841741947247</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>90.93092582727566</v>
       </c>
       <c r="K15" t="n">
-        <v>51.45324836744911</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>148.3792973187132</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>51.45324836744911</v>
       </c>
       <c r="P15" t="n">
         <v>148.3792973187132</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>141.2913663169562</v>
+        <v>57.71767054229583</v>
       </c>
       <c r="M16" t="n">
         <v>148.3792973187132</v>
@@ -35820,7 +35820,7 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P16" t="n">
-        <v>12.30084594033041</v>
+        <v>95.87454171499078</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>148.3792973187132</v>
@@ -35893,10 +35893,10 @@
         <v>148.3792973187132</v>
       </c>
       <c r="N17" t="n">
+        <v>148.3792973187132</v>
+      </c>
+      <c r="O17" t="n">
         <v>142.3841741947247</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>142.3841741947248</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>148.3792973187132</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>148.3792973187132</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.30084594033044</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>141.2913663169562</v>
+        <v>57.71767054229583</v>
       </c>
       <c r="M19" t="n">
         <v>148.3792973187132</v>
@@ -36057,7 +36057,7 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>95.87454171499078</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>123.2101834308291</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,13 +36127,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>19.17399076389567</v>
+      </c>
+      <c r="O20" t="n">
         <v>148.3792973187132</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>142.3841741947248</v>
       </c>
       <c r="P20" t="n">
         <v>148.3792973187132</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>90.93092582727566</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>51.45324836744911</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>148.3792973187132</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>148.3792973187132</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>148.3792973187132</v>
       </c>
       <c r="Q21" t="n">
-        <v>148.3792973187132</v>
+        <v>142.3841741947247</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>12.30084594033047</v>
       </c>
       <c r="L22" t="n">
         <v>141.2913663169562</v>
@@ -36294,7 +36294,7 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P22" t="n">
-        <v>12.30084594033041</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>123.2101834308291</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>148.3792973187132</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="L23" t="n">
-        <v>148.3792973187132</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="M23" t="n">
-        <v>19.17399076389561</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="N23" t="n">
-        <v>148.3792973187132</v>
+        <v>142.3841741947244</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>90.93092582727566</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>148.3792973187132</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>142.3841741947244</v>
       </c>
       <c r="O24" t="n">
-        <v>148.3792973187132</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.45324836744914</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>64.94262896520388</v>
       </c>
       <c r="L25" t="n">
-        <v>141.2913663169562</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>148.3792973187132</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="N25" t="n">
-        <v>148.3792973187132</v>
+        <v>148.3792973187128</v>
       </c>
       <c r="O25" t="n">
         <v>137.1712592561514</v>
       </c>
       <c r="P25" t="n">
-        <v>12.30084594033041</v>
+        <v>88.64958329208204</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>123.2101834308291</v>
       </c>
       <c r="K26" t="n">
-        <v>318.2290329641714</v>
+        <v>427.9976711365277</v>
       </c>
       <c r="L26" t="n">
-        <v>555.0346477439781</v>
+        <v>533.2619636510806</v>
       </c>
       <c r="M26" t="n">
-        <v>611.4246435179768</v>
+        <v>501.6560053456204</v>
       </c>
       <c r="N26" t="n">
-        <v>598.0562769029704</v>
+        <v>488.2876387306139</v>
       </c>
       <c r="O26" t="n">
         <v>518.0741129338425</v>
       </c>
       <c r="P26" t="n">
-        <v>315.9969935399753</v>
+        <v>425.7656317123316</v>
       </c>
       <c r="Q26" t="n">
-        <v>247.615653659914</v>
+        <v>269.3883377528124</v>
       </c>
       <c r="R26" t="n">
-        <v>57.40093143129777</v>
+        <v>57.40093143129771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>90.93092582727566</v>
       </c>
       <c r="K27" t="n">
-        <v>55.72722269350719</v>
+        <v>283.199899135763</v>
       </c>
       <c r="L27" t="n">
-        <v>438.618906718948</v>
+        <v>392.1076160685776</v>
       </c>
       <c r="M27" t="n">
         <v>570.5713282463718</v>
@@ -36686,13 +36686,13 @@
         <v>599.202858574924</v>
       </c>
       <c r="O27" t="n">
-        <v>471.8826108388413</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>365.9202070161091</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>199.9902992196804</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.1757639704332</v>
+        <v>69.17576397043312</v>
       </c>
       <c r="K28" t="n">
-        <v>64.94262896520388</v>
+        <v>79.99356755875193</v>
       </c>
       <c r="L28" t="n">
-        <v>251.0600044893126</v>
+        <v>251.0600044893125</v>
       </c>
       <c r="M28" t="n">
         <v>270.7783987487308</v>
       </c>
       <c r="N28" t="n">
-        <v>175.4993756947523</v>
+        <v>160.4484371012057</v>
       </c>
       <c r="O28" t="n">
-        <v>246.9398974285078</v>
+        <v>246.9398974285077</v>
       </c>
       <c r="P28" t="n">
-        <v>205.6431798873472</v>
+        <v>205.6431798873471</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.95875434571914</v>
+        <v>93.95875434571907</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>318.2290329641714</v>
       </c>
       <c r="L29" t="n">
-        <v>555.0346477439781</v>
+        <v>445.2660095716217</v>
       </c>
       <c r="M29" t="n">
-        <v>611.4246435179768</v>
+        <v>589.651959425079</v>
       </c>
       <c r="N29" t="n">
         <v>598.0562769029702</v>
@@ -36847,13 +36847,13 @@
         <v>518.0741129338425</v>
       </c>
       <c r="P29" t="n">
-        <v>315.9969935399753</v>
+        <v>425.7656317123316</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.615653659914</v>
+        <v>269.3883377528124</v>
       </c>
       <c r="R29" t="n">
-        <v>57.40093143129776</v>
+        <v>57.40093143129771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.17576397043317</v>
+        <v>69.17576397043312</v>
       </c>
       <c r="K31" t="n">
-        <v>64.94262896520388</v>
+        <v>174.7112671375602</v>
       </c>
       <c r="L31" t="n">
-        <v>251.0600044893126</v>
+        <v>156.3423049105045</v>
       </c>
       <c r="M31" t="n">
         <v>270.7783987487308</v>
@@ -37002,13 +37002,13 @@
         <v>270.217075273562</v>
       </c>
       <c r="O31" t="n">
-        <v>152.2221978496985</v>
+        <v>246.9398974285077</v>
       </c>
       <c r="P31" t="n">
-        <v>205.6431798873472</v>
+        <v>95.87454171499078</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.95875434571911</v>
+        <v>93.95875434571907</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.9788216031855</v>
+        <v>123.2101834308291</v>
       </c>
       <c r="K32" t="n">
         <v>318.2290329641714</v>
@@ -37075,22 +37075,22 @@
         <v>555.0346477439781</v>
       </c>
       <c r="M32" t="n">
-        <v>611.4246435179767</v>
+        <v>501.6560053456204</v>
       </c>
       <c r="N32" t="n">
-        <v>598.0562769029702</v>
+        <v>576.2835928100726</v>
       </c>
       <c r="O32" t="n">
-        <v>408.3054747614861</v>
+        <v>518.0741129338425</v>
       </c>
       <c r="P32" t="n">
-        <v>315.9969935399753</v>
+        <v>425.7656317123316</v>
       </c>
       <c r="Q32" t="n">
-        <v>247.6156536599149</v>
+        <v>269.3883377528124</v>
       </c>
       <c r="R32" t="n">
-        <v>57.4009314312977</v>
+        <v>57.40093143129775</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>283.199899135763</v>
       </c>
       <c r="L33" t="n">
-        <v>438.618906718948</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>418.0976337732693</v>
+        <v>570.5713282463718</v>
       </c>
       <c r="N33" t="n">
         <v>599.202858574924</v>
@@ -37163,7 +37163,7 @@
         <v>471.8826108388413</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>286.1452122458453</v>
       </c>
       <c r="Q33" t="n">
         <v>199.9902992196804</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.17576397043311</v>
+        <v>69.17576397043317</v>
       </c>
       <c r="K34" t="n">
-        <v>79.99356755875239</v>
+        <v>79.9935675587509</v>
       </c>
       <c r="L34" t="n">
-        <v>251.0600044893125</v>
+        <v>251.0600044893126</v>
       </c>
       <c r="M34" t="n">
         <v>270.7783987487308</v>
       </c>
       <c r="N34" t="n">
-        <v>270.217075273562</v>
+        <v>160.4484371012057</v>
       </c>
       <c r="O34" t="n">
-        <v>246.9398974285077</v>
+        <v>246.9398974285078</v>
       </c>
       <c r="P34" t="n">
-        <v>95.8745417149908</v>
+        <v>205.6431798873472</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.95875434571906</v>
+        <v>93.95875434571911</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>123.2101834308291</v>
+        <v>120.1595554801461</v>
       </c>
       <c r="K35" t="n">
         <v>318.2290329641714</v>
@@ -37318,13 +37318,13 @@
         <v>488.2876387306139</v>
       </c>
       <c r="O35" t="n">
-        <v>408.3054747614861</v>
+        <v>408.305474761486</v>
       </c>
       <c r="P35" t="n">
         <v>315.9969935399753</v>
       </c>
       <c r="Q35" t="n">
-        <v>156.5690716297725</v>
+        <v>159.619699580456</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>90.93092582727566</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>283.199899135763</v>
       </c>
       <c r="L36" t="n">
-        <v>438.618906718948</v>
+        <v>11.1559310570121</v>
       </c>
       <c r="M36" t="n">
         <v>570.5713282463718</v>
       </c>
       <c r="N36" t="n">
-        <v>80.80895708571249</v>
+        <v>599.202858574924</v>
       </c>
       <c r="O36" t="n">
         <v>471.8826108388413</v>
@@ -37479,13 +37479,13 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P37" t="n">
-        <v>95.8745417149908</v>
+        <v>95.87454171499078</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.508689768985705</v>
+        <v>4.508689768985475</v>
       </c>
       <c r="R37" t="n">
-        <v>12.12772091263936</v>
+        <v>12.12772091263938</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>123.2101834308291</v>
+        <v>120.1595554801461</v>
       </c>
       <c r="K38" t="n">
         <v>318.2290329641714</v>
       </c>
       <c r="L38" t="n">
-        <v>442.2153816209386</v>
+        <v>445.2660095716217</v>
       </c>
       <c r="M38" t="n">
         <v>501.6560053456204</v>
@@ -37555,13 +37555,13 @@
         <v>488.2876387306139</v>
       </c>
       <c r="O38" t="n">
-        <v>408.3054747614861</v>
+        <v>408.305474761486</v>
       </c>
       <c r="P38" t="n">
         <v>315.9969935399753</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.6196995804561</v>
+        <v>159.619699580456</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>90.93092582727566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>283.199899135763</v>
       </c>
       <c r="L39" t="n">
-        <v>438.618906718948</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>570.5713282463718</v>
       </c>
       <c r="N39" t="n">
-        <v>364.0088562214754</v>
+        <v>599.202858574924</v>
       </c>
       <c r="O39" t="n">
         <v>471.8826108388413</v>
@@ -37640,7 +37640,7 @@
         <v>365.9202070161091</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.9902992196804</v>
+        <v>120.2153044494168</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,13 +37716,13 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P40" t="n">
-        <v>95.8745417149908</v>
+        <v>95.87454171499078</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.63641068162511</v>
+        <v>4.508689768985475</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>12.12772091263938</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37792,13 +37792,13 @@
         <v>488.2876387306139</v>
       </c>
       <c r="O41" t="n">
-        <v>405.2548468108029</v>
+        <v>408.305474761486</v>
       </c>
       <c r="P41" t="n">
-        <v>315.9969935399753</v>
+        <v>312.946365589293</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.6196995804561</v>
+        <v>159.619699580456</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>283.199899135763</v>
       </c>
       <c r="L42" t="n">
         <v>438.618906718948</v>
@@ -37874,10 +37874,10 @@
         <v>471.8826108388413</v>
       </c>
       <c r="P42" t="n">
-        <v>365.9202070161091</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.72722269350719</v>
+        <v>138.4475305738536</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P43" t="n">
-        <v>95.8745417149908</v>
+        <v>95.87454171499078</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.508689768985246</v>
+        <v>4.508689768985475</v>
       </c>
       <c r="R43" t="n">
         <v>12.12772091263938</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>123.2101834308291</v>
+        <v>120.1595554801461</v>
       </c>
       <c r="K44" t="n">
         <v>318.2290329641714</v>
@@ -38029,13 +38029,13 @@
         <v>488.2876387306139</v>
       </c>
       <c r="O44" t="n">
-        <v>408.3054747614861</v>
+        <v>408.305474761486</v>
       </c>
       <c r="P44" t="n">
         <v>315.9969935399753</v>
       </c>
       <c r="Q44" t="n">
-        <v>156.5690716297725</v>
+        <v>159.619699580456</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.93092582727566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>283.199899135763</v>
       </c>
       <c r="L45" t="n">
         <v>438.618906718948</v>
@@ -38111,10 +38111,10 @@
         <v>471.8826108388413</v>
       </c>
       <c r="P45" t="n">
-        <v>365.9202070161091</v>
+        <v>47.51660474657773</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.72722269350719</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.6364106816246</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>64.94262896520388</v>
@@ -38190,13 +38190,13 @@
         <v>137.1712592561514</v>
       </c>
       <c r="P46" t="n">
-        <v>95.8745417149908</v>
+        <v>95.87454171499078</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>4.508689768985475</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>12.12772091263938</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
